--- a/Data/ROY Data/rookies_10_11.xlsx
+++ b/Data/ROY Data/rookies_10_11.xlsx
@@ -924,76 +924,73 @@
         <v>24</v>
       </c>
       <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>23</v>
+      </c>
+      <c r="H2">
+        <v>196</v>
+      </c>
+      <c r="I2">
+        <v>23</v>
+      </c>
+      <c r="J2">
+        <v>54</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>11</v>
+      </c>
+      <c r="N2">
+        <v>19</v>
+      </c>
+      <c r="O2">
+        <v>23</v>
+      </c>
+      <c r="P2">
+        <v>58</v>
+      </c>
+      <c r="Q2">
+        <v>10</v>
+      </c>
+      <c r="R2">
+        <v>4</v>
+      </c>
+      <c r="S2">
         <v>5</v>
       </c>
-      <c r="G2">
-        <v>153</v>
-      </c>
-      <c r="H2">
-        <v>2148</v>
-      </c>
-      <c r="I2">
-        <v>264</v>
-      </c>
-      <c r="J2">
-        <v>557</v>
-      </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-      <c r="L2">
-        <v>2</v>
-      </c>
-      <c r="M2">
-        <v>181</v>
-      </c>
-      <c r="N2">
-        <v>288</v>
-      </c>
-      <c r="O2">
-        <v>221</v>
-      </c>
-      <c r="P2">
-        <v>659</v>
-      </c>
-      <c r="Q2">
-        <v>100</v>
-      </c>
-      <c r="R2">
-        <v>50</v>
-      </c>
-      <c r="S2">
-        <v>79</v>
-      </c>
       <c r="T2">
-        <v>91</v>
+        <v>9</v>
       </c>
       <c r="U2">
-        <v>259</v>
+        <v>28</v>
       </c>
       <c r="V2">
-        <v>709</v>
+        <v>57</v>
       </c>
       <c r="W2">
-        <v>0.474</v>
-      </c>
-      <c r="X2">
-        <v>0</v>
+        <v>0.426</v>
       </c>
       <c r="Y2">
-        <v>0.628</v>
+        <v>0.579</v>
       </c>
       <c r="Z2">
-        <v>14</v>
+        <v>8.5</v>
       </c>
       <c r="AA2">
-        <v>4.6</v>
+        <v>2.5</v>
       </c>
       <c r="AB2">
-        <v>4.3</v>
+        <v>2.5</v>
       </c>
       <c r="AC2">
-        <v>0.7</v>
+        <v>0.4</v>
       </c>
       <c r="AD2" t="s">
         <v>146</v>
@@ -1016,70 +1013,70 @@
         <v>22</v>
       </c>
       <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>12</v>
+      </c>
+      <c r="H3">
+        <v>59</v>
+      </c>
+      <c r="I3">
+        <v>3</v>
+      </c>
+      <c r="J3">
+        <v>15</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
         <v>2</v>
       </c>
-      <c r="G3">
-        <v>26</v>
-      </c>
-      <c r="H3">
-        <v>181</v>
-      </c>
-      <c r="I3">
-        <v>16</v>
-      </c>
-      <c r="J3">
-        <v>51</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3">
-        <v>0</v>
-      </c>
-      <c r="M3">
+      <c r="O3">
         <v>7</v>
       </c>
-      <c r="N3">
-        <v>10</v>
-      </c>
-      <c r="O3">
-        <v>22</v>
-      </c>
       <c r="P3">
-        <v>61</v>
+        <v>14</v>
       </c>
       <c r="Q3">
+        <v>2</v>
+      </c>
+      <c r="R3">
+        <v>2</v>
+      </c>
+      <c r="S3">
+        <v>2</v>
+      </c>
+      <c r="T3">
+        <v>3</v>
+      </c>
+      <c r="U3">
         <v>5</v>
       </c>
-      <c r="R3">
-        <v>4</v>
-      </c>
-      <c r="S3">
-        <v>11</v>
-      </c>
-      <c r="T3">
-        <v>8</v>
-      </c>
-      <c r="U3">
-        <v>16</v>
-      </c>
       <c r="V3">
-        <v>39</v>
+        <v>6</v>
       </c>
       <c r="W3">
-        <v>0.314</v>
+        <v>0.2</v>
       </c>
       <c r="Y3">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="Z3">
-        <v>7</v>
+        <v>4.9</v>
       </c>
       <c r="AA3">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="AB3">
-        <v>2.3</v>
+        <v>1.2</v>
       </c>
       <c r="AC3">
         <v>0.2</v>
@@ -1105,19 +1102,19 @@
         <v>22</v>
       </c>
       <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>18</v>
+      </c>
+      <c r="H4">
+        <v>142</v>
+      </c>
+      <c r="I4">
         <v>8</v>
       </c>
-      <c r="G4">
-        <v>339</v>
-      </c>
-      <c r="H4">
-        <v>3389</v>
-      </c>
-      <c r="I4">
-        <v>435</v>
-      </c>
       <c r="J4">
-        <v>825</v>
+        <v>15</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -1126,52 +1123,52 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>180</v>
+        <v>2</v>
       </c>
       <c r="N4">
-        <v>244</v>
+        <v>4</v>
       </c>
       <c r="O4">
-        <v>334</v>
+        <v>13</v>
       </c>
       <c r="P4">
-        <v>1131</v>
+        <v>35</v>
       </c>
       <c r="Q4">
-        <v>183</v>
+        <v>4</v>
       </c>
       <c r="R4">
-        <v>137</v>
+        <v>5</v>
       </c>
       <c r="S4">
-        <v>233</v>
+        <v>7</v>
       </c>
       <c r="T4">
-        <v>199</v>
+        <v>8</v>
       </c>
       <c r="U4">
-        <v>509</v>
+        <v>30</v>
       </c>
       <c r="V4">
-        <v>1050</v>
+        <v>18</v>
       </c>
       <c r="W4">
-        <v>0.527</v>
+        <v>0.533</v>
       </c>
       <c r="Y4">
-        <v>0.738</v>
+        <v>0.5</v>
       </c>
       <c r="Z4">
-        <v>10</v>
+        <v>7.9</v>
       </c>
       <c r="AA4">
-        <v>3.1</v>
+        <v>1</v>
       </c>
       <c r="AB4">
-        <v>3.3</v>
+        <v>1.9</v>
       </c>
       <c r="AC4">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="AD4" t="s">
         <v>146</v>
@@ -1194,76 +1191,76 @@
         <v>20</v>
       </c>
       <c r="F5">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>688</v>
+        <v>81</v>
       </c>
       <c r="H5">
-        <v>17264</v>
+        <v>1452</v>
       </c>
       <c r="I5">
-        <v>1910</v>
+        <v>160</v>
       </c>
       <c r="J5">
-        <v>4542</v>
+        <v>406</v>
       </c>
       <c r="K5">
-        <v>535</v>
+        <v>45</v>
       </c>
       <c r="L5">
-        <v>1597</v>
+        <v>143</v>
       </c>
       <c r="M5">
-        <v>893</v>
+        <v>92</v>
       </c>
       <c r="N5">
-        <v>1199</v>
+        <v>119</v>
       </c>
       <c r="O5">
-        <v>960</v>
+        <v>75</v>
       </c>
       <c r="P5">
-        <v>4170</v>
+        <v>267</v>
       </c>
       <c r="Q5">
-        <v>848</v>
+        <v>60</v>
       </c>
       <c r="R5">
-        <v>659</v>
+        <v>59</v>
       </c>
       <c r="S5">
-        <v>388</v>
+        <v>25</v>
       </c>
       <c r="T5">
-        <v>835</v>
+        <v>103</v>
       </c>
       <c r="U5">
-        <v>1273</v>
+        <v>121</v>
       </c>
       <c r="V5">
-        <v>5248</v>
+        <v>457</v>
       </c>
       <c r="W5">
-        <v>0.421</v>
+        <v>0.394</v>
       </c>
       <c r="X5">
-        <v>0.335</v>
+        <v>0.315</v>
       </c>
       <c r="Y5">
-        <v>0.745</v>
+        <v>0.773</v>
       </c>
       <c r="Z5">
-        <v>25.1</v>
+        <v>17.9</v>
       </c>
       <c r="AA5">
-        <v>7.6</v>
+        <v>5.6</v>
       </c>
       <c r="AB5">
-        <v>6.1</v>
+        <v>3.3</v>
       </c>
       <c r="AC5">
-        <v>1.2</v>
+        <v>0.7</v>
       </c>
       <c r="AD5" t="s">
         <v>146</v>
@@ -1286,76 +1283,76 @@
         <v>21</v>
       </c>
       <c r="F6">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>247</v>
+        <v>26</v>
       </c>
       <c r="H6">
-        <v>4320</v>
+        <v>286</v>
       </c>
       <c r="I6">
-        <v>525</v>
+        <v>31</v>
       </c>
       <c r="J6">
-        <v>1276</v>
+        <v>81</v>
       </c>
       <c r="K6">
-        <v>196</v>
+        <v>18</v>
       </c>
       <c r="L6">
-        <v>611</v>
+        <v>46</v>
       </c>
       <c r="M6">
-        <v>176</v>
+        <v>14</v>
       </c>
       <c r="N6">
-        <v>233</v>
+        <v>18</v>
       </c>
       <c r="O6">
-        <v>108</v>
+        <v>2</v>
       </c>
       <c r="P6">
-        <v>560</v>
+        <v>23</v>
       </c>
       <c r="Q6">
-        <v>291</v>
+        <v>18</v>
       </c>
       <c r="R6">
-        <v>121</v>
+        <v>3</v>
       </c>
       <c r="S6">
-        <v>55</v>
+        <v>6</v>
       </c>
       <c r="T6">
-        <v>216</v>
+        <v>13</v>
       </c>
       <c r="U6">
-        <v>292</v>
+        <v>24</v>
       </c>
       <c r="V6">
-        <v>1422</v>
+        <v>94</v>
       </c>
       <c r="W6">
-        <v>0.411</v>
+        <v>0.383</v>
       </c>
       <c r="X6">
-        <v>0.321</v>
+        <v>0.391</v>
       </c>
       <c r="Y6">
-        <v>0.755</v>
+        <v>0.778</v>
       </c>
       <c r="Z6">
-        <v>17.5</v>
+        <v>11</v>
       </c>
       <c r="AA6">
-        <v>5.8</v>
+        <v>3.6</v>
       </c>
       <c r="AB6">
-        <v>2.3</v>
+        <v>0.9</v>
       </c>
       <c r="AC6">
-        <v>1.2</v>
+        <v>0.7</v>
       </c>
       <c r="AD6" t="s">
         <v>146</v>
@@ -1378,76 +1375,73 @@
         <v>24</v>
       </c>
       <c r="F7">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>471</v>
+        <v>82</v>
       </c>
       <c r="H7">
-        <v>9216</v>
+        <v>989</v>
       </c>
       <c r="I7">
-        <v>947</v>
+        <v>78</v>
       </c>
       <c r="J7">
-        <v>1795</v>
+        <v>141</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>585</v>
+        <v>73</v>
       </c>
       <c r="N7">
-        <v>1062</v>
+        <v>145</v>
       </c>
       <c r="O7">
-        <v>1036</v>
+        <v>112</v>
       </c>
       <c r="P7">
-        <v>3362</v>
+        <v>306</v>
       </c>
       <c r="Q7">
-        <v>280</v>
+        <v>32</v>
       </c>
       <c r="R7">
-        <v>167</v>
+        <v>20</v>
       </c>
       <c r="S7">
-        <v>339</v>
+        <v>56</v>
       </c>
       <c r="T7">
-        <v>542</v>
+        <v>64</v>
       </c>
       <c r="U7">
-        <v>928</v>
+        <v>153</v>
       </c>
       <c r="V7">
-        <v>2479</v>
+        <v>229</v>
       </c>
       <c r="W7">
-        <v>0.528</v>
-      </c>
-      <c r="X7">
-        <v>0</v>
+        <v>0.553</v>
       </c>
       <c r="Y7">
-        <v>0.551</v>
+        <v>0.503</v>
       </c>
       <c r="Z7">
-        <v>19.6</v>
+        <v>12.1</v>
       </c>
       <c r="AA7">
-        <v>5.3</v>
+        <v>2.8</v>
       </c>
       <c r="AB7">
-        <v>7.1</v>
+        <v>3.7</v>
       </c>
       <c r="AC7">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="AD7" t="s">
         <v>146</v>
@@ -1470,76 +1464,76 @@
         <v>21</v>
       </c>
       <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>24</v>
+      </c>
+      <c r="H8">
+        <v>137</v>
+      </c>
+      <c r="I8">
+        <v>15</v>
+      </c>
+      <c r="J8">
+        <v>55</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>16</v>
+      </c>
+      <c r="M8">
+        <v>3</v>
+      </c>
+      <c r="N8">
+        <v>9</v>
+      </c>
+      <c r="O8">
+        <v>6</v>
+      </c>
+      <c r="P8">
+        <v>30</v>
+      </c>
+      <c r="Q8">
+        <v>6</v>
+      </c>
+      <c r="R8">
+        <v>2</v>
+      </c>
+      <c r="S8">
+        <v>2</v>
+      </c>
+      <c r="T8">
         <v>8</v>
       </c>
-      <c r="G8">
-        <v>381</v>
-      </c>
-      <c r="H8">
-        <v>5332</v>
-      </c>
-      <c r="I8">
-        <v>650</v>
-      </c>
-      <c r="J8">
-        <v>1593</v>
-      </c>
-      <c r="K8">
-        <v>394</v>
-      </c>
-      <c r="L8">
-        <v>979</v>
-      </c>
-      <c r="M8">
-        <v>124</v>
-      </c>
-      <c r="N8">
-        <v>166</v>
-      </c>
-      <c r="O8">
-        <v>111</v>
-      </c>
-      <c r="P8">
-        <v>846</v>
-      </c>
-      <c r="Q8">
-        <v>224</v>
-      </c>
-      <c r="R8">
-        <v>89</v>
-      </c>
-      <c r="S8">
-        <v>58</v>
-      </c>
-      <c r="T8">
-        <v>165</v>
-      </c>
       <c r="U8">
-        <v>520</v>
+        <v>15</v>
       </c>
       <c r="V8">
-        <v>1818</v>
+        <v>36</v>
       </c>
       <c r="W8">
-        <v>0.408</v>
+        <v>0.273</v>
       </c>
       <c r="X8">
-        <v>0.402</v>
+        <v>0.188</v>
       </c>
       <c r="Y8">
-        <v>0.747</v>
+        <v>0.333</v>
       </c>
       <c r="Z8">
-        <v>14</v>
+        <v>5.7</v>
       </c>
       <c r="AA8">
-        <v>4.8</v>
+        <v>1.5</v>
       </c>
       <c r="AB8">
-        <v>2.2</v>
+        <v>1.3</v>
       </c>
       <c r="AC8">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="AD8" t="s">
         <v>146</v>
@@ -1562,76 +1556,76 @@
         <v>21</v>
       </c>
       <c r="F9">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>626</v>
+        <v>81</v>
       </c>
       <c r="H9">
-        <v>17427</v>
+        <v>1841</v>
       </c>
       <c r="I9">
-        <v>3170</v>
+        <v>206</v>
       </c>
       <c r="J9">
-        <v>6930</v>
+        <v>486</v>
       </c>
       <c r="K9">
-        <v>678</v>
+        <v>32</v>
       </c>
       <c r="L9">
-        <v>2013</v>
+        <v>116</v>
       </c>
       <c r="M9">
-        <v>1881</v>
+        <v>99</v>
       </c>
       <c r="N9">
-        <v>2365</v>
+        <v>133</v>
       </c>
       <c r="O9">
-        <v>511</v>
+        <v>68</v>
       </c>
       <c r="P9">
-        <v>2488</v>
+        <v>223</v>
       </c>
       <c r="Q9">
-        <v>3026</v>
+        <v>289</v>
       </c>
       <c r="R9">
-        <v>900</v>
+        <v>92</v>
       </c>
       <c r="S9">
-        <v>300</v>
+        <v>26</v>
       </c>
       <c r="T9">
-        <v>1650</v>
+        <v>194</v>
       </c>
       <c r="U9">
-        <v>1288</v>
+        <v>130</v>
       </c>
       <c r="V9">
-        <v>8899</v>
+        <v>543</v>
       </c>
       <c r="W9">
-        <v>0.457</v>
+        <v>0.424</v>
       </c>
       <c r="X9">
-        <v>0.337</v>
+        <v>0.276</v>
       </c>
       <c r="Y9">
-        <v>0.795</v>
+        <v>0.744</v>
       </c>
       <c r="Z9">
-        <v>27.8</v>
+        <v>22.7</v>
       </c>
       <c r="AA9">
-        <v>14.2</v>
+        <v>6.7</v>
       </c>
       <c r="AB9">
-        <v>4</v>
+        <v>2.8</v>
       </c>
       <c r="AC9">
-        <v>4.8</v>
+        <v>3.6</v>
       </c>
       <c r="AD9" t="s">
         <v>146</v>
@@ -1654,76 +1648,76 @@
         <v>23</v>
       </c>
       <c r="F10">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>532</v>
+        <v>65</v>
       </c>
       <c r="H10">
-        <v>10872</v>
+        <v>1063</v>
       </c>
       <c r="I10">
-        <v>1548</v>
+        <v>139</v>
       </c>
       <c r="J10">
-        <v>3003</v>
+        <v>253</v>
       </c>
       <c r="K10">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>246</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>508</v>
+        <v>68</v>
       </c>
       <c r="N10">
-        <v>799</v>
+        <v>101</v>
       </c>
       <c r="O10">
-        <v>1029</v>
+        <v>98</v>
       </c>
       <c r="P10">
-        <v>2932</v>
+        <v>251</v>
       </c>
       <c r="Q10">
-        <v>566</v>
+        <v>35</v>
       </c>
       <c r="R10">
-        <v>355</v>
+        <v>29</v>
       </c>
       <c r="S10">
-        <v>277</v>
+        <v>42</v>
       </c>
       <c r="T10">
-        <v>540</v>
+        <v>38</v>
       </c>
       <c r="U10">
-        <v>1063</v>
+        <v>115</v>
       </c>
       <c r="V10">
-        <v>3679</v>
+        <v>346</v>
       </c>
       <c r="W10">
-        <v>0.515</v>
+        <v>0.549</v>
       </c>
       <c r="X10">
-        <v>0.305</v>
+        <v>0</v>
       </c>
       <c r="Y10">
-        <v>0.636</v>
+        <v>0.673</v>
       </c>
       <c r="Z10">
-        <v>20.4</v>
+        <v>16.4</v>
       </c>
       <c r="AA10">
-        <v>6.9</v>
+        <v>5.3</v>
       </c>
       <c r="AB10">
-        <v>5.5</v>
+        <v>3.9</v>
       </c>
       <c r="AC10">
-        <v>1.1</v>
+        <v>0.5</v>
       </c>
       <c r="AD10" t="s">
         <v>146</v>
@@ -1746,76 +1740,73 @@
         <v>23</v>
       </c>
       <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>3</v>
+      </c>
+      <c r="H11">
+        <v>33</v>
+      </c>
+      <c r="I11">
+        <v>4</v>
+      </c>
+      <c r="J11">
+        <v>16</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>5</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
         <v>2</v>
       </c>
-      <c r="G11">
-        <v>17</v>
-      </c>
-      <c r="H11">
-        <v>121</v>
-      </c>
-      <c r="I11">
-        <v>13</v>
-      </c>
-      <c r="J11">
-        <v>49</v>
-      </c>
-      <c r="K11">
+      <c r="P11">
+        <v>4</v>
+      </c>
+      <c r="Q11">
+        <v>1</v>
+      </c>
+      <c r="R11">
+        <v>1</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+      <c r="T11">
+        <v>0</v>
+      </c>
+      <c r="U11">
         <v>3</v>
       </c>
-      <c r="L11">
-        <v>14</v>
-      </c>
-      <c r="M11">
-        <v>1</v>
-      </c>
-      <c r="N11">
-        <v>2</v>
-      </c>
-      <c r="O11">
-        <v>7</v>
-      </c>
-      <c r="P11">
-        <v>19</v>
-      </c>
-      <c r="Q11">
-        <v>9</v>
-      </c>
-      <c r="R11">
-        <v>1</v>
-      </c>
-      <c r="S11">
-        <v>1</v>
-      </c>
-      <c r="T11">
-        <v>4</v>
-      </c>
-      <c r="U11">
-        <v>9</v>
-      </c>
       <c r="V11">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="W11">
-        <v>0.265</v>
+        <v>0.25</v>
       </c>
       <c r="X11">
-        <v>0.214</v>
-      </c>
-      <c r="Y11">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="Z11">
-        <v>7.1</v>
+        <v>11</v>
       </c>
       <c r="AA11">
-        <v>1.8</v>
+        <v>2.7</v>
       </c>
       <c r="AB11">
-        <v>1.1</v>
+        <v>1.3</v>
       </c>
       <c r="AC11">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AD11" t="s">
         <v>146</v>
@@ -1838,76 +1829,76 @@
         <v>20</v>
       </c>
       <c r="F12">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>571</v>
+        <v>31</v>
       </c>
       <c r="H12">
-        <v>16143</v>
+        <v>162</v>
       </c>
       <c r="I12">
-        <v>2702</v>
+        <v>23</v>
       </c>
       <c r="J12">
-        <v>6194</v>
+        <v>67</v>
       </c>
       <c r="K12">
-        <v>744</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>2042</v>
+        <v>5</v>
       </c>
       <c r="M12">
-        <v>564</v>
+        <v>6</v>
       </c>
       <c r="N12">
-        <v>723</v>
+        <v>12</v>
       </c>
       <c r="O12">
-        <v>358</v>
+        <v>4</v>
       </c>
       <c r="P12">
-        <v>1670</v>
+        <v>17</v>
       </c>
       <c r="Q12">
-        <v>1012</v>
+        <v>12</v>
       </c>
       <c r="R12">
-        <v>581</v>
+        <v>9</v>
       </c>
       <c r="S12">
-        <v>116</v>
+        <v>0</v>
       </c>
       <c r="T12">
-        <v>802</v>
+        <v>16</v>
       </c>
       <c r="U12">
-        <v>1254</v>
+        <v>20</v>
       </c>
       <c r="V12">
-        <v>6712</v>
+        <v>52</v>
       </c>
       <c r="W12">
-        <v>0.436</v>
+        <v>0.343</v>
       </c>
       <c r="X12">
-        <v>0.364</v>
+        <v>0</v>
       </c>
       <c r="Y12">
-        <v>0.78</v>
+        <v>0.5</v>
       </c>
       <c r="Z12">
-        <v>28.3</v>
+        <v>5.2</v>
       </c>
       <c r="AA12">
-        <v>11.8</v>
+        <v>1.7</v>
       </c>
       <c r="AB12">
-        <v>2.9</v>
+        <v>0.5</v>
       </c>
       <c r="AC12">
-        <v>1.8</v>
+        <v>0.4</v>
       </c>
       <c r="AD12" t="s">
         <v>146</v>
@@ -2197,76 +2188,76 @@
         <v>20</v>
       </c>
       <c r="F16">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>565</v>
+        <v>81</v>
       </c>
       <c r="H16">
-        <v>18078</v>
+        <v>2309</v>
       </c>
       <c r="I16">
-        <v>4283</v>
+        <v>432</v>
       </c>
       <c r="J16">
-        <v>9295</v>
+        <v>1004</v>
       </c>
       <c r="K16">
-        <v>342</v>
+        <v>3</v>
       </c>
       <c r="L16">
-        <v>1031</v>
+        <v>18</v>
       </c>
       <c r="M16">
-        <v>3098</v>
+        <v>276</v>
       </c>
       <c r="N16">
-        <v>4205</v>
+        <v>402</v>
       </c>
       <c r="O16">
-        <v>1565</v>
+        <v>217</v>
       </c>
       <c r="P16">
-        <v>6131</v>
+        <v>699</v>
       </c>
       <c r="Q16">
-        <v>1832</v>
+        <v>204</v>
       </c>
       <c r="R16">
-        <v>805</v>
+        <v>85</v>
       </c>
       <c r="S16">
-        <v>697</v>
+        <v>68</v>
       </c>
       <c r="T16">
-        <v>2000</v>
+        <v>268</v>
       </c>
       <c r="U16">
-        <v>2175</v>
+        <v>332</v>
       </c>
       <c r="V16">
-        <v>12006</v>
+        <v>1143</v>
       </c>
       <c r="W16">
-        <v>0.461</v>
+        <v>0.43</v>
       </c>
       <c r="X16">
-        <v>0.332</v>
+        <v>0.167</v>
       </c>
       <c r="Y16">
-        <v>0.737</v>
+        <v>0.6870000000000001</v>
       </c>
       <c r="Z16">
-        <v>32</v>
+        <v>28.5</v>
       </c>
       <c r="AA16">
-        <v>21.2</v>
+        <v>14.1</v>
       </c>
       <c r="AB16">
-        <v>10.9</v>
+        <v>8.6</v>
       </c>
       <c r="AC16">
-        <v>3.2</v>
+        <v>2.5</v>
       </c>
       <c r="AD16" t="s">
         <v>146</v>
@@ -2289,76 +2280,76 @@
         <v>22</v>
       </c>
       <c r="F17">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>281</v>
+        <v>42</v>
       </c>
       <c r="H17">
-        <v>6843</v>
+        <v>1027</v>
       </c>
       <c r="I17">
-        <v>1286</v>
+        <v>192</v>
       </c>
       <c r="J17">
-        <v>3130</v>
+        <v>500</v>
       </c>
       <c r="K17">
-        <v>330</v>
+        <v>33</v>
       </c>
       <c r="L17">
-        <v>1041</v>
+        <v>128</v>
       </c>
       <c r="M17">
-        <v>530</v>
+        <v>73</v>
       </c>
       <c r="N17">
-        <v>642</v>
+        <v>84</v>
       </c>
       <c r="O17">
-        <v>153</v>
+        <v>31</v>
       </c>
       <c r="P17">
-        <v>703</v>
+        <v>105</v>
       </c>
       <c r="Q17">
-        <v>883</v>
+        <v>117</v>
       </c>
       <c r="R17">
-        <v>196</v>
+        <v>39</v>
       </c>
       <c r="S17">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="T17">
-        <v>529</v>
+        <v>83</v>
       </c>
       <c r="U17">
-        <v>437</v>
+        <v>63</v>
       </c>
       <c r="V17">
-        <v>3432</v>
+        <v>490</v>
       </c>
       <c r="W17">
-        <v>0.411</v>
+        <v>0.384</v>
       </c>
       <c r="X17">
-        <v>0.317</v>
+        <v>0.258</v>
       </c>
       <c r="Y17">
-        <v>0.826</v>
+        <v>0.869</v>
       </c>
       <c r="Z17">
-        <v>24.4</v>
+        <v>24.5</v>
       </c>
       <c r="AA17">
-        <v>12.2</v>
+        <v>11.7</v>
       </c>
       <c r="AB17">
         <v>2.5</v>
       </c>
       <c r="AC17">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="AD17" t="s">
         <v>146</v>
@@ -2381,76 +2372,73 @@
         <v>21</v>
       </c>
       <c r="F18">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>665</v>
+        <v>65</v>
       </c>
       <c r="H18">
-        <v>13221</v>
+        <v>1602</v>
       </c>
       <c r="I18">
-        <v>1735</v>
+        <v>215</v>
       </c>
       <c r="J18">
-        <v>3056</v>
+        <v>373</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>727</v>
+        <v>71</v>
       </c>
       <c r="N18">
-        <v>1248</v>
+        <v>128</v>
       </c>
       <c r="O18">
-        <v>1524</v>
+        <v>168</v>
       </c>
       <c r="P18">
-        <v>4427</v>
+        <v>462</v>
       </c>
       <c r="Q18">
-        <v>507</v>
+        <v>40</v>
       </c>
       <c r="R18">
-        <v>332</v>
+        <v>39</v>
       </c>
       <c r="S18">
-        <v>544</v>
+        <v>67</v>
       </c>
       <c r="T18">
-        <v>520</v>
+        <v>48</v>
       </c>
       <c r="U18">
-        <v>1654</v>
+        <v>183</v>
       </c>
       <c r="V18">
-        <v>4197</v>
+        <v>501</v>
       </c>
       <c r="W18">
-        <v>0.5679999999999999</v>
-      </c>
-      <c r="X18">
-        <v>0</v>
+        <v>0.576</v>
       </c>
       <c r="Y18">
-        <v>0.583</v>
+        <v>0.555</v>
       </c>
       <c r="Z18">
-        <v>19.9</v>
+        <v>24.6</v>
       </c>
       <c r="AA18">
-        <v>6.3</v>
+        <v>7.7</v>
       </c>
       <c r="AB18">
-        <v>6.7</v>
+        <v>7.1</v>
       </c>
       <c r="AC18">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="AD18" t="s">
         <v>146</v>
@@ -2565,76 +2553,76 @@
         <v>21</v>
       </c>
       <c r="F20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G20">
-        <v>63</v>
+        <v>20</v>
       </c>
       <c r="H20">
-        <v>711</v>
+        <v>118</v>
       </c>
       <c r="I20">
-        <v>82</v>
+        <v>21</v>
       </c>
       <c r="J20">
-        <v>213</v>
+        <v>51</v>
       </c>
       <c r="K20">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="L20">
-        <v>36</v>
+        <v>5</v>
       </c>
       <c r="M20">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="N20">
-        <v>72</v>
+        <v>23</v>
       </c>
       <c r="O20">
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="P20">
-        <v>122</v>
+        <v>27</v>
       </c>
       <c r="Q20">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="R20">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="S20">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="T20">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="U20">
-        <v>56</v>
+        <v>7</v>
       </c>
       <c r="V20">
-        <v>224</v>
+        <v>62</v>
       </c>
       <c r="W20">
-        <v>0.385</v>
+        <v>0.412</v>
       </c>
       <c r="X20">
-        <v>0.222</v>
+        <v>0.4</v>
       </c>
       <c r="Y20">
-        <v>0.722</v>
+        <v>0.783</v>
       </c>
       <c r="Z20">
-        <v>11.3</v>
+        <v>5.9</v>
       </c>
       <c r="AA20">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="AB20">
-        <v>1.9</v>
+        <v>1.4</v>
       </c>
       <c r="AC20">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
       <c r="AD20" t="s">
         <v>146</v>
@@ -2657,19 +2645,19 @@
         <v>24</v>
       </c>
       <c r="F21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G21">
-        <v>69</v>
+        <v>41</v>
       </c>
       <c r="H21">
-        <v>928</v>
+        <v>595</v>
       </c>
       <c r="I21">
-        <v>101</v>
+        <v>62</v>
       </c>
       <c r="J21">
-        <v>185</v>
+        <v>111</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -2678,52 +2666,52 @@
         <v>0</v>
       </c>
       <c r="M21">
+        <v>39</v>
+      </c>
+      <c r="N21">
         <v>60</v>
       </c>
-      <c r="N21">
-        <v>101</v>
-      </c>
       <c r="O21">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="P21">
-        <v>190</v>
+        <v>118</v>
       </c>
       <c r="Q21">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="R21">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="S21">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="T21">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="U21">
-        <v>164</v>
+        <v>104</v>
       </c>
       <c r="V21">
-        <v>262</v>
+        <v>163</v>
       </c>
       <c r="W21">
-        <v>0.546</v>
+        <v>0.5590000000000001</v>
       </c>
       <c r="Y21">
-        <v>0.594</v>
+        <v>0.65</v>
       </c>
       <c r="Z21">
-        <v>13.4</v>
+        <v>14.5</v>
       </c>
       <c r="AA21">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="AB21">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="AC21">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="AD21" t="s">
         <v>146</v>
@@ -2746,76 +2734,76 @@
         <v>23</v>
       </c>
       <c r="F22">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G22">
-        <v>250</v>
+        <v>49</v>
       </c>
       <c r="H22">
-        <v>2626</v>
+        <v>463</v>
       </c>
       <c r="I22">
-        <v>364</v>
+        <v>76</v>
       </c>
       <c r="J22">
-        <v>640</v>
+        <v>115</v>
       </c>
       <c r="K22">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
         <v>26</v>
       </c>
-      <c r="M22">
-        <v>145</v>
-      </c>
       <c r="N22">
-        <v>211</v>
+        <v>37</v>
       </c>
       <c r="O22">
-        <v>239</v>
+        <v>36</v>
       </c>
       <c r="P22">
-        <v>641</v>
+        <v>97</v>
       </c>
       <c r="Q22">
-        <v>107</v>
+        <v>24</v>
       </c>
       <c r="R22">
-        <v>90</v>
+        <v>17</v>
       </c>
       <c r="S22">
-        <v>121</v>
+        <v>17</v>
       </c>
       <c r="T22">
-        <v>85</v>
+        <v>19</v>
       </c>
       <c r="U22">
-        <v>291</v>
+        <v>50</v>
       </c>
       <c r="V22">
-        <v>879</v>
+        <v>178</v>
       </c>
       <c r="W22">
-        <v>0.569</v>
+        <v>0.661</v>
       </c>
       <c r="X22">
-        <v>0.231</v>
+        <v>0</v>
       </c>
       <c r="Y22">
-        <v>0.6870000000000001</v>
+        <v>0.703</v>
       </c>
       <c r="Z22">
-        <v>10.5</v>
+        <v>9.4</v>
       </c>
       <c r="AA22">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="AB22">
-        <v>2.6</v>
+        <v>2</v>
       </c>
       <c r="AC22">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="AD22" t="s">
         <v>146</v>
@@ -2930,73 +2918,73 @@
         <v>21</v>
       </c>
       <c r="F24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G24">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="H24">
-        <v>1049</v>
+        <v>947</v>
       </c>
       <c r="I24">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="J24">
-        <v>331</v>
+        <v>306</v>
       </c>
       <c r="K24">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L24">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="M24">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="N24">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="O24">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="P24">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="Q24">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="R24">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="S24">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="T24">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="U24">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="V24">
-        <v>320</v>
+        <v>303</v>
       </c>
       <c r="W24">
-        <v>0.411</v>
+        <v>0.425</v>
       </c>
       <c r="X24">
-        <v>0.277</v>
+        <v>0.275</v>
       </c>
       <c r="Y24">
-        <v>0.611</v>
+        <v>0.643</v>
       </c>
       <c r="Z24">
-        <v>20.6</v>
+        <v>21.5</v>
       </c>
       <c r="AA24">
-        <v>6.3</v>
+        <v>6.9</v>
       </c>
       <c r="AB24">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="AC24">
         <v>0.8</v>
@@ -3022,76 +3010,73 @@
         <v>19</v>
       </c>
       <c r="F25">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G25">
-        <v>678</v>
+        <v>78</v>
       </c>
       <c r="H25">
-        <v>17385</v>
+        <v>1535</v>
       </c>
       <c r="I25">
-        <v>3152</v>
+        <v>215</v>
       </c>
       <c r="J25">
-        <v>5951</v>
+        <v>416</v>
       </c>
       <c r="K25">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>174</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>1397</v>
+        <v>103</v>
       </c>
       <c r="N25">
-        <v>2111</v>
+        <v>173</v>
       </c>
       <c r="O25">
-        <v>1723</v>
+        <v>171</v>
       </c>
       <c r="P25">
-        <v>5000</v>
+        <v>412</v>
       </c>
       <c r="Q25">
-        <v>777</v>
+        <v>39</v>
       </c>
       <c r="R25">
-        <v>526</v>
+        <v>29</v>
       </c>
       <c r="S25">
-        <v>857</v>
+        <v>68</v>
       </c>
       <c r="T25">
-        <v>948</v>
+        <v>77</v>
       </c>
       <c r="U25">
-        <v>1765</v>
+        <v>246</v>
       </c>
       <c r="V25">
-        <v>7737</v>
+        <v>533</v>
       </c>
       <c r="W25">
-        <v>0.53</v>
-      </c>
-      <c r="X25">
-        <v>0.207</v>
+        <v>0.517</v>
       </c>
       <c r="Y25">
-        <v>0.662</v>
+        <v>0.595</v>
       </c>
       <c r="Z25">
-        <v>25.6</v>
+        <v>19.7</v>
       </c>
       <c r="AA25">
-        <v>11.4</v>
+        <v>6.8</v>
       </c>
       <c r="AB25">
-        <v>7.4</v>
+        <v>5.3</v>
       </c>
       <c r="AC25">
-        <v>1.1</v>
+        <v>0.5</v>
       </c>
       <c r="AD25" t="s">
         <v>146</v>
@@ -3114,76 +3099,76 @@
         <v>22</v>
       </c>
       <c r="F26">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G26">
-        <v>255</v>
+        <v>82</v>
       </c>
       <c r="H26">
-        <v>6010</v>
+        <v>2541</v>
       </c>
       <c r="I26">
-        <v>684</v>
+        <v>299</v>
       </c>
       <c r="J26">
-        <v>1446</v>
+        <v>602</v>
       </c>
       <c r="K26">
-        <v>120</v>
+        <v>86</v>
       </c>
       <c r="L26">
-        <v>361</v>
+        <v>219</v>
       </c>
       <c r="M26">
-        <v>243</v>
+        <v>113</v>
       </c>
       <c r="N26">
-        <v>365</v>
+        <v>147</v>
       </c>
       <c r="O26">
-        <v>248</v>
+        <v>105</v>
       </c>
       <c r="P26">
-        <v>1092</v>
+        <v>521</v>
       </c>
       <c r="Q26">
-        <v>419</v>
+        <v>155</v>
       </c>
       <c r="R26">
-        <v>212</v>
+        <v>80</v>
       </c>
       <c r="S26">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="T26">
-        <v>270</v>
+        <v>107</v>
       </c>
       <c r="U26">
-        <v>310</v>
+        <v>114</v>
       </c>
       <c r="V26">
-        <v>1731</v>
+        <v>797</v>
       </c>
       <c r="W26">
-        <v>0.473</v>
+        <v>0.497</v>
       </c>
       <c r="X26">
-        <v>0.332</v>
+        <v>0.393</v>
       </c>
       <c r="Y26">
-        <v>0.666</v>
+        <v>0.769</v>
       </c>
       <c r="Z26">
-        <v>23.6</v>
+        <v>31</v>
       </c>
       <c r="AA26">
-        <v>6.8</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="AB26">
-        <v>4.3</v>
+        <v>6.4</v>
       </c>
       <c r="AC26">
-        <v>1.6</v>
+        <v>1.9</v>
       </c>
       <c r="AD26" t="s">
         <v>146</v>
@@ -3206,76 +3191,76 @@
         <v>25</v>
       </c>
       <c r="F27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G27">
-        <v>111</v>
+        <v>63</v>
       </c>
       <c r="H27">
-        <v>1504</v>
+        <v>791</v>
       </c>
       <c r="I27">
-        <v>236</v>
+        <v>124</v>
       </c>
       <c r="J27">
-        <v>544</v>
+        <v>273</v>
       </c>
       <c r="K27">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="L27">
-        <v>141</v>
+        <v>58</v>
       </c>
       <c r="M27">
-        <v>125</v>
+        <v>59</v>
       </c>
       <c r="N27">
-        <v>178</v>
+        <v>87</v>
       </c>
       <c r="O27">
-        <v>55</v>
+        <v>28</v>
       </c>
       <c r="P27">
-        <v>218</v>
+        <v>116</v>
       </c>
       <c r="Q27">
-        <v>103</v>
+        <v>49</v>
       </c>
       <c r="R27">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="S27">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="T27">
-        <v>100</v>
+        <v>46</v>
       </c>
       <c r="U27">
-        <v>133</v>
+        <v>77</v>
       </c>
       <c r="V27">
-        <v>645</v>
+        <v>326</v>
       </c>
       <c r="W27">
-        <v>0.434</v>
+        <v>0.454</v>
       </c>
       <c r="X27">
-        <v>0.34</v>
+        <v>0.328</v>
       </c>
       <c r="Y27">
-        <v>0.702</v>
+        <v>0.678</v>
       </c>
       <c r="Z27">
-        <v>13.5</v>
+        <v>12.6</v>
       </c>
       <c r="AA27">
-        <v>5.8</v>
+        <v>5.2</v>
       </c>
       <c r="AB27">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AC27">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="AD27" t="s">
         <v>146</v>
@@ -3298,76 +3283,76 @@
         <v>20</v>
       </c>
       <c r="F28">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G28">
-        <v>647</v>
+        <v>61</v>
       </c>
       <c r="H28">
-        <v>21680</v>
+        <v>1265</v>
       </c>
       <c r="I28">
-        <v>4360</v>
+        <v>179</v>
       </c>
       <c r="J28">
-        <v>10063</v>
+        <v>395</v>
       </c>
       <c r="K28">
-        <v>1572</v>
+        <v>41</v>
       </c>
       <c r="L28">
-        <v>4135</v>
+        <v>138</v>
       </c>
       <c r="M28">
-        <v>2601</v>
+        <v>77</v>
       </c>
       <c r="N28">
-        <v>3076</v>
+        <v>101</v>
       </c>
       <c r="O28">
-        <v>585</v>
+        <v>37</v>
       </c>
       <c r="P28">
-        <v>4137</v>
+        <v>224</v>
       </c>
       <c r="Q28">
-        <v>2165</v>
+        <v>65</v>
       </c>
       <c r="R28">
-        <v>1130</v>
+        <v>62</v>
       </c>
       <c r="S28">
-        <v>287</v>
+        <v>26</v>
       </c>
       <c r="T28">
-        <v>1676</v>
+        <v>70</v>
       </c>
       <c r="U28">
-        <v>1743</v>
+        <v>127</v>
       </c>
       <c r="V28">
-        <v>12893</v>
+        <v>476</v>
       </c>
       <c r="W28">
-        <v>0.433</v>
+        <v>0.453</v>
       </c>
       <c r="X28">
-        <v>0.38</v>
+        <v>0.297</v>
       </c>
       <c r="Y28">
-        <v>0.846</v>
+        <v>0.762</v>
       </c>
       <c r="Z28">
-        <v>33.5</v>
+        <v>20.7</v>
       </c>
       <c r="AA28">
-        <v>19.9</v>
+        <v>7.8</v>
       </c>
       <c r="AB28">
-        <v>6.4</v>
+        <v>3.7</v>
       </c>
       <c r="AC28">
-        <v>3.3</v>
+        <v>1.1</v>
       </c>
       <c r="AD28" t="s">
         <v>146</v>
@@ -3390,76 +3375,76 @@
         <v>21</v>
       </c>
       <c r="F29">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G29">
-        <v>622</v>
+        <v>82</v>
       </c>
       <c r="H29">
-        <v>21671</v>
+        <v>3112</v>
       </c>
       <c r="I29">
-        <v>5049</v>
+        <v>696</v>
       </c>
       <c r="J29">
-        <v>10134</v>
+        <v>1376</v>
       </c>
       <c r="K29">
-        <v>407</v>
+        <v>7</v>
       </c>
       <c r="L29">
-        <v>1223</v>
+        <v>24</v>
       </c>
       <c r="M29">
-        <v>2974</v>
+        <v>446</v>
       </c>
       <c r="N29">
-        <v>4283</v>
+        <v>695</v>
       </c>
       <c r="O29">
-        <v>1345</v>
+        <v>270</v>
       </c>
       <c r="P29">
-        <v>5501</v>
+        <v>989</v>
       </c>
       <c r="Q29">
-        <v>2749</v>
+        <v>312</v>
       </c>
       <c r="R29">
-        <v>554</v>
+        <v>63</v>
       </c>
       <c r="S29">
-        <v>321</v>
+        <v>45</v>
       </c>
       <c r="T29">
-        <v>1617</v>
+        <v>223</v>
       </c>
       <c r="U29">
-        <v>1777</v>
+        <v>252</v>
       </c>
       <c r="V29">
-        <v>13479</v>
+        <v>1845</v>
       </c>
       <c r="W29">
-        <v>0.498</v>
+        <v>0.506</v>
       </c>
       <c r="X29">
-        <v>0.333</v>
+        <v>0.292</v>
       </c>
       <c r="Y29">
-        <v>0.694</v>
+        <v>0.642</v>
       </c>
       <c r="Z29">
-        <v>34.8</v>
+        <v>38</v>
       </c>
       <c r="AA29">
-        <v>21.7</v>
+        <v>22.5</v>
       </c>
       <c r="AB29">
-        <v>8.800000000000001</v>
+        <v>12.1</v>
       </c>
       <c r="AC29">
-        <v>4.4</v>
+        <v>3.8</v>
       </c>
       <c r="AD29" t="s">
         <v>146</v>
@@ -3482,76 +3467,76 @@
         <v>23</v>
       </c>
       <c r="F30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G30">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="H30">
-        <v>871</v>
+        <v>640</v>
       </c>
       <c r="I30">
-        <v>102</v>
+        <v>79</v>
       </c>
       <c r="J30">
-        <v>271</v>
+        <v>206</v>
       </c>
       <c r="K30">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="L30">
-        <v>87</v>
+        <v>66</v>
       </c>
       <c r="M30">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="N30">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="O30">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="P30">
-        <v>196</v>
+        <v>143</v>
       </c>
       <c r="Q30">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="R30">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="S30">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="T30">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="U30">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="V30">
-        <v>253</v>
+        <v>193</v>
       </c>
       <c r="W30">
-        <v>0.376</v>
+        <v>0.383</v>
       </c>
       <c r="X30">
-        <v>0.241</v>
+        <v>0.242</v>
       </c>
       <c r="Y30">
-        <v>0.737</v>
+        <v>0.731</v>
       </c>
       <c r="Z30">
-        <v>12.4</v>
+        <v>13.1</v>
       </c>
       <c r="AA30">
-        <v>3.6</v>
+        <v>3.9</v>
       </c>
       <c r="AB30">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="AC30">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AD30" t="s">
         <v>146</v>
@@ -3574,76 +3559,76 @@
         <v>21</v>
       </c>
       <c r="F31">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G31">
+        <v>54</v>
+      </c>
+      <c r="H31">
+        <v>933</v>
+      </c>
+      <c r="I31">
+        <v>108</v>
+      </c>
+      <c r="J31">
+        <v>289</v>
+      </c>
+      <c r="K31">
+        <v>34</v>
+      </c>
+      <c r="L31">
+        <v>92</v>
+      </c>
+      <c r="M31">
+        <v>71</v>
+      </c>
+      <c r="N31">
         <v>93</v>
       </c>
-      <c r="H31">
-        <v>1594</v>
-      </c>
-      <c r="I31">
-        <v>199</v>
-      </c>
-      <c r="J31">
-        <v>524</v>
-      </c>
-      <c r="K31">
-        <v>53</v>
-      </c>
-      <c r="L31">
-        <v>150</v>
-      </c>
-      <c r="M31">
-        <v>124</v>
-      </c>
-      <c r="N31">
-        <v>168</v>
-      </c>
       <c r="O31">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="P31">
-        <v>253</v>
+        <v>140</v>
       </c>
       <c r="Q31">
-        <v>129</v>
+        <v>85</v>
       </c>
       <c r="R31">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="S31">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="T31">
-        <v>101</v>
+        <v>63</v>
       </c>
       <c r="U31">
-        <v>104</v>
+        <v>65</v>
       </c>
       <c r="V31">
-        <v>575</v>
+        <v>321</v>
       </c>
       <c r="W31">
-        <v>0.38</v>
+        <v>0.374</v>
       </c>
       <c r="X31">
-        <v>0.353</v>
+        <v>0.37</v>
       </c>
       <c r="Y31">
-        <v>0.738</v>
+        <v>0.763</v>
       </c>
       <c r="Z31">
-        <v>17.1</v>
+        <v>17.3</v>
       </c>
       <c r="AA31">
-        <v>6.2</v>
+        <v>5.9</v>
       </c>
       <c r="AB31">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="AC31">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="AD31" t="s">
         <v>146</v>
@@ -3666,76 +3651,76 @@
         <v>20</v>
       </c>
       <c r="F32">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G32">
-        <v>635</v>
+        <v>72</v>
       </c>
       <c r="H32">
-        <v>19568</v>
+        <v>1218</v>
       </c>
       <c r="I32">
-        <v>3329</v>
+        <v>142</v>
       </c>
       <c r="J32">
-        <v>7387</v>
+        <v>293</v>
       </c>
       <c r="K32">
-        <v>840</v>
+        <v>35</v>
       </c>
       <c r="L32">
-        <v>2297</v>
+        <v>74</v>
       </c>
       <c r="M32">
-        <v>2201</v>
+        <v>69</v>
       </c>
       <c r="N32">
-        <v>2675</v>
+        <v>97</v>
       </c>
       <c r="O32">
-        <v>475</v>
+        <v>41</v>
       </c>
       <c r="P32">
-        <v>2775</v>
+        <v>139</v>
       </c>
       <c r="Q32">
-        <v>2197</v>
+        <v>81</v>
       </c>
       <c r="R32">
-        <v>624</v>
+        <v>30</v>
       </c>
       <c r="S32">
-        <v>259</v>
+        <v>19</v>
       </c>
       <c r="T32">
-        <v>1247</v>
+        <v>70</v>
       </c>
       <c r="U32">
-        <v>1111</v>
+        <v>106</v>
       </c>
       <c r="V32">
-        <v>9699</v>
+        <v>388</v>
       </c>
       <c r="W32">
-        <v>0.451</v>
+        <v>0.485</v>
       </c>
       <c r="X32">
-        <v>0.366</v>
+        <v>0.473</v>
       </c>
       <c r="Y32">
-        <v>0.823</v>
+        <v>0.711</v>
       </c>
       <c r="Z32">
-        <v>30.8</v>
+        <v>16.9</v>
       </c>
       <c r="AA32">
-        <v>15.3</v>
+        <v>5.4</v>
       </c>
       <c r="AB32">
-        <v>4.4</v>
+        <v>1.9</v>
       </c>
       <c r="AC32">
-        <v>3.5</v>
+        <v>1.1</v>
       </c>
       <c r="AD32" t="s">
         <v>146</v>
@@ -3758,76 +3743,76 @@
         <v>24</v>
       </c>
       <c r="F33">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G33">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="H33">
-        <v>591</v>
+        <v>419</v>
       </c>
       <c r="I33">
+        <v>55</v>
+      </c>
+      <c r="J33">
+        <v>154</v>
+      </c>
+      <c r="K33">
+        <v>17</v>
+      </c>
+      <c r="L33">
+        <v>60</v>
+      </c>
+      <c r="M33">
+        <v>33</v>
+      </c>
+      <c r="N33">
+        <v>42</v>
+      </c>
+      <c r="O33">
+        <v>23</v>
+      </c>
+      <c r="P33">
         <v>70</v>
       </c>
-      <c r="J33">
-        <v>202</v>
-      </c>
-      <c r="K33">
-        <v>21</v>
-      </c>
-      <c r="L33">
-        <v>78</v>
-      </c>
-      <c r="M33">
-        <v>46</v>
-      </c>
-      <c r="N33">
-        <v>60</v>
-      </c>
-      <c r="O33">
-        <v>25</v>
-      </c>
-      <c r="P33">
-        <v>90</v>
-      </c>
       <c r="Q33">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="R33">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="S33">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="T33">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="U33">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="V33">
-        <v>207</v>
+        <v>160</v>
       </c>
       <c r="W33">
-        <v>0.347</v>
+        <v>0.357</v>
       </c>
       <c r="X33">
-        <v>0.269</v>
+        <v>0.283</v>
       </c>
       <c r="Y33">
-        <v>0.767</v>
+        <v>0.786</v>
       </c>
       <c r="Z33">
-        <v>8.199999999999999</v>
+        <v>10</v>
       </c>
       <c r="AA33">
-        <v>2.9</v>
+        <v>3.8</v>
       </c>
       <c r="AB33">
-        <v>1.3</v>
+        <v>1.7</v>
       </c>
       <c r="AC33">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="AD33" t="s">
         <v>146</v>
@@ -3850,76 +3835,76 @@
         <v>19</v>
       </c>
       <c r="F34">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G34">
-        <v>185</v>
+        <v>38</v>
       </c>
       <c r="H34">
-        <v>2905</v>
+        <v>527</v>
       </c>
       <c r="I34">
-        <v>368</v>
+        <v>65</v>
       </c>
       <c r="J34">
-        <v>907</v>
+        <v>160</v>
       </c>
       <c r="K34">
-        <v>41</v>
+        <v>2</v>
       </c>
       <c r="L34">
-        <v>126</v>
+        <v>17</v>
       </c>
       <c r="M34">
-        <v>273</v>
+        <v>33</v>
       </c>
       <c r="N34">
-        <v>430</v>
+        <v>52</v>
       </c>
       <c r="O34">
-        <v>81</v>
+        <v>9</v>
       </c>
       <c r="P34">
-        <v>351</v>
+        <v>37</v>
       </c>
       <c r="Q34">
-        <v>120</v>
+        <v>18</v>
       </c>
       <c r="R34">
-        <v>100</v>
+        <v>11</v>
       </c>
       <c r="S34">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="T34">
-        <v>139</v>
+        <v>13</v>
       </c>
       <c r="U34">
-        <v>264</v>
+        <v>48</v>
       </c>
       <c r="V34">
-        <v>1050</v>
+        <v>165</v>
       </c>
       <c r="W34">
         <v>0.406</v>
       </c>
       <c r="X34">
-        <v>0.325</v>
+        <v>0.118</v>
       </c>
       <c r="Y34">
         <v>0.635</v>
       </c>
       <c r="Z34">
-        <v>15.7</v>
+        <v>13.9</v>
       </c>
       <c r="AA34">
-        <v>5.7</v>
+        <v>4.3</v>
       </c>
       <c r="AB34">
-        <v>1.9</v>
+        <v>1</v>
       </c>
       <c r="AC34">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AD34" t="s">
         <v>146</v>
@@ -3942,76 +3927,76 @@
         <v>23</v>
       </c>
       <c r="F35">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G35">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="H35">
-        <v>623</v>
+        <v>403</v>
       </c>
       <c r="I35">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="J35">
-        <v>147</v>
+        <v>103</v>
       </c>
       <c r="K35">
         <v>0</v>
       </c>
       <c r="L35">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M35">
+        <v>18</v>
+      </c>
+      <c r="N35">
         <v>28</v>
       </c>
-      <c r="N35">
-        <v>42</v>
-      </c>
       <c r="O35">
+        <v>17</v>
+      </c>
+      <c r="P35">
+        <v>85</v>
+      </c>
+      <c r="Q35">
+        <v>20</v>
+      </c>
+      <c r="R35">
+        <v>16</v>
+      </c>
+      <c r="S35">
+        <v>12</v>
+      </c>
+      <c r="T35">
         <v>25</v>
       </c>
-      <c r="P35">
-        <v>131</v>
-      </c>
-      <c r="Q35">
-        <v>26</v>
-      </c>
-      <c r="R35">
-        <v>23</v>
-      </c>
-      <c r="S35">
-        <v>20</v>
-      </c>
-      <c r="T35">
-        <v>38</v>
-      </c>
       <c r="U35">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="V35">
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="W35">
-        <v>0.415</v>
+        <v>0.447</v>
       </c>
       <c r="X35">
         <v>0</v>
       </c>
       <c r="Y35">
-        <v>0.667</v>
+        <v>0.643</v>
       </c>
       <c r="Z35">
-        <v>16</v>
+        <v>16.1</v>
       </c>
       <c r="AA35">
-        <v>3.8</v>
+        <v>4.4</v>
       </c>
       <c r="AB35">
         <v>3.4</v>
       </c>
       <c r="AC35">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="AD35" t="s">
         <v>146</v>
@@ -4126,73 +4111,73 @@
         <v>21</v>
       </c>
       <c r="F37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G37">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="H37">
-        <v>401</v>
+        <v>277</v>
       </c>
       <c r="I37">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="J37">
-        <v>144</v>
+        <v>101</v>
       </c>
       <c r="K37">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L37">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="M37">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="N37">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="O37">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="P37">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="Q37">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="R37">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="S37">
         <v>1</v>
       </c>
       <c r="T37">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="U37">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="V37">
-        <v>157</v>
+        <v>110</v>
       </c>
       <c r="W37">
-        <v>0.458</v>
+        <v>0.455</v>
       </c>
       <c r="X37">
-        <v>0.4</v>
+        <v>0.417</v>
       </c>
       <c r="Y37">
-        <v>0.679</v>
+        <v>0.591</v>
       </c>
       <c r="Z37">
-        <v>8.5</v>
+        <v>7.3</v>
       </c>
       <c r="AA37">
-        <v>3.3</v>
+        <v>2.9</v>
       </c>
       <c r="AB37">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AC37">
         <v>1.2</v>
@@ -4218,70 +4203,70 @@
         <v>25</v>
       </c>
       <c r="F38">
+        <v>1</v>
+      </c>
+      <c r="G38">
+        <v>14</v>
+      </c>
+      <c r="H38">
+        <v>138</v>
+      </c>
+      <c r="I38">
+        <v>9</v>
+      </c>
+      <c r="J38">
+        <v>21</v>
+      </c>
+      <c r="K38">
+        <v>0</v>
+      </c>
+      <c r="L38">
+        <v>0</v>
+      </c>
+      <c r="M38">
+        <v>15</v>
+      </c>
+      <c r="N38">
+        <v>20</v>
+      </c>
+      <c r="O38">
+        <v>12</v>
+      </c>
+      <c r="P38">
+        <v>32</v>
+      </c>
+      <c r="Q38">
         <v>3</v>
       </c>
-      <c r="G38">
-        <v>71</v>
-      </c>
-      <c r="H38">
-        <v>597</v>
-      </c>
-      <c r="I38">
-        <v>77</v>
-      </c>
-      <c r="J38">
-        <v>137</v>
-      </c>
-      <c r="K38">
-        <v>0</v>
-      </c>
-      <c r="L38">
-        <v>0</v>
-      </c>
-      <c r="M38">
-        <v>51</v>
-      </c>
-      <c r="N38">
-        <v>73</v>
-      </c>
-      <c r="O38">
-        <v>47</v>
-      </c>
-      <c r="P38">
-        <v>132</v>
-      </c>
-      <c r="Q38">
-        <v>13</v>
-      </c>
       <c r="R38">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="S38">
-        <v>46</v>
+        <v>9</v>
       </c>
       <c r="T38">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="U38">
-        <v>103</v>
+        <v>21</v>
       </c>
       <c r="V38">
-        <v>205</v>
+        <v>33</v>
       </c>
       <c r="W38">
-        <v>0.5620000000000001</v>
+        <v>0.429</v>
       </c>
       <c r="Y38">
-        <v>0.699</v>
+        <v>0.75</v>
       </c>
       <c r="Z38">
-        <v>8.4</v>
+        <v>9.9</v>
       </c>
       <c r="AA38">
-        <v>2.9</v>
+        <v>2.4</v>
       </c>
       <c r="AB38">
-        <v>1.9</v>
+        <v>2.3</v>
       </c>
       <c r="AC38">
         <v>0.2</v>
@@ -4307,76 +4292,76 @@
         <v>23</v>
       </c>
       <c r="F39">
+        <v>1</v>
+      </c>
+      <c r="G39">
+        <v>79</v>
+      </c>
+      <c r="H39">
+        <v>2069</v>
+      </c>
+      <c r="I39">
+        <v>271</v>
+      </c>
+      <c r="J39">
+        <v>682</v>
+      </c>
+      <c r="K39">
+        <v>103</v>
+      </c>
+      <c r="L39">
+        <v>289</v>
+      </c>
+      <c r="M39">
+        <v>64</v>
+      </c>
+      <c r="N39">
+        <v>92</v>
+      </c>
+      <c r="O39">
+        <v>51</v>
+      </c>
+      <c r="P39">
+        <v>240</v>
+      </c>
+      <c r="Q39">
+        <v>148</v>
+      </c>
+      <c r="R39">
+        <v>58</v>
+      </c>
+      <c r="S39">
+        <v>54</v>
+      </c>
+      <c r="T39">
+        <v>95</v>
+      </c>
+      <c r="U39">
+        <v>163</v>
+      </c>
+      <c r="V39">
+        <v>709</v>
+      </c>
+      <c r="W39">
+        <v>0.397</v>
+      </c>
+      <c r="X39">
+        <v>0.356</v>
+      </c>
+      <c r="Y39">
+        <v>0.696</v>
+      </c>
+      <c r="Z39">
+        <v>26.2</v>
+      </c>
+      <c r="AA39">
         <v>9</v>
       </c>
-      <c r="G39">
-        <v>609</v>
-      </c>
-      <c r="H39">
-        <v>13472</v>
-      </c>
-      <c r="I39">
-        <v>1629</v>
-      </c>
-      <c r="J39">
-        <v>4028</v>
-      </c>
-      <c r="K39">
-        <v>614</v>
-      </c>
-      <c r="L39">
-        <v>1823</v>
-      </c>
-      <c r="M39">
-        <v>363</v>
-      </c>
-      <c r="N39">
-        <v>490</v>
-      </c>
-      <c r="O39">
-        <v>337</v>
-      </c>
-      <c r="P39">
-        <v>1924</v>
-      </c>
-      <c r="Q39">
-        <v>645</v>
-      </c>
-      <c r="R39">
-        <v>468</v>
-      </c>
-      <c r="S39">
-        <v>402</v>
-      </c>
-      <c r="T39">
-        <v>525</v>
-      </c>
-      <c r="U39">
-        <v>1168</v>
-      </c>
-      <c r="V39">
-        <v>4235</v>
-      </c>
-      <c r="W39">
-        <v>0.404</v>
-      </c>
-      <c r="X39">
-        <v>0.337</v>
-      </c>
-      <c r="Y39">
-        <v>0.741</v>
-      </c>
-      <c r="Z39">
-        <v>22.1</v>
-      </c>
-      <c r="AA39">
-        <v>7</v>
-      </c>
       <c r="AB39">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="AC39">
-        <v>1.1</v>
+        <v>1.9</v>
       </c>
       <c r="AD39" t="s">
         <v>146</v>
@@ -4399,76 +4384,76 @@
         <v>22</v>
       </c>
       <c r="F40">
+        <v>1</v>
+      </c>
+      <c r="G40">
+        <v>18</v>
+      </c>
+      <c r="H40">
+        <v>135</v>
+      </c>
+      <c r="I40">
+        <v>14</v>
+      </c>
+      <c r="J40">
+        <v>45</v>
+      </c>
+      <c r="K40">
+        <v>0</v>
+      </c>
+      <c r="L40">
+        <v>4</v>
+      </c>
+      <c r="M40">
+        <v>14</v>
+      </c>
+      <c r="N40">
+        <v>17</v>
+      </c>
+      <c r="O40">
+        <v>6</v>
+      </c>
+      <c r="P40">
+        <v>25</v>
+      </c>
+      <c r="Q40">
+        <v>19</v>
+      </c>
+      <c r="R40">
+        <v>5</v>
+      </c>
+      <c r="S40">
         <v>3</v>
       </c>
-      <c r="G40">
-        <v>80</v>
-      </c>
-      <c r="H40">
-        <v>741</v>
-      </c>
-      <c r="I40">
-        <v>83</v>
-      </c>
-      <c r="J40">
-        <v>227</v>
-      </c>
-      <c r="K40">
-        <v>2</v>
-      </c>
-      <c r="L40">
-        <v>21</v>
-      </c>
-      <c r="M40">
-        <v>78</v>
-      </c>
-      <c r="N40">
-        <v>107</v>
-      </c>
-      <c r="O40">
-        <v>33</v>
-      </c>
-      <c r="P40">
-        <v>114</v>
-      </c>
-      <c r="Q40">
-        <v>144</v>
-      </c>
-      <c r="R40">
-        <v>29</v>
-      </c>
-      <c r="S40">
+      <c r="T40">
         <v>10</v>
       </c>
-      <c r="T40">
-        <v>76</v>
-      </c>
       <c r="U40">
-        <v>64</v>
+        <v>7</v>
       </c>
       <c r="V40">
-        <v>246</v>
+        <v>42</v>
       </c>
       <c r="W40">
-        <v>0.366</v>
+        <v>0.311</v>
       </c>
       <c r="X40">
-        <v>0.095</v>
+        <v>0</v>
       </c>
       <c r="Y40">
-        <v>0.729</v>
+        <v>0.824</v>
       </c>
       <c r="Z40">
-        <v>9.300000000000001</v>
+        <v>7.5</v>
       </c>
       <c r="AA40">
-        <v>3.1</v>
+        <v>2.3</v>
       </c>
       <c r="AB40">
         <v>1.4</v>
       </c>
       <c r="AC40">
-        <v>1.8</v>
+        <v>1.1</v>
       </c>
       <c r="AD40" t="s">
         <v>146</v>
@@ -4574,76 +4559,76 @@
         <v>22</v>
       </c>
       <c r="F42">
+        <v>1</v>
+      </c>
+      <c r="G42">
+        <v>29</v>
+      </c>
+      <c r="H42">
+        <v>285</v>
+      </c>
+      <c r="I42">
+        <v>28</v>
+      </c>
+      <c r="J42">
+        <v>72</v>
+      </c>
+      <c r="K42">
+        <v>1</v>
+      </c>
+      <c r="L42">
+        <v>5</v>
+      </c>
+      <c r="M42">
+        <v>19</v>
+      </c>
+      <c r="N42">
+        <v>25</v>
+      </c>
+      <c r="O42">
+        <v>12</v>
+      </c>
+      <c r="P42">
+        <v>34</v>
+      </c>
+      <c r="Q42">
+        <v>42</v>
+      </c>
+      <c r="R42">
+        <v>33</v>
+      </c>
+      <c r="S42">
         <v>9</v>
       </c>
-      <c r="G42">
-        <v>480</v>
-      </c>
-      <c r="H42">
-        <v>12218</v>
-      </c>
-      <c r="I42">
-        <v>1885</v>
-      </c>
-      <c r="J42">
-        <v>4349</v>
-      </c>
-      <c r="K42">
-        <v>449</v>
-      </c>
-      <c r="L42">
-        <v>1313</v>
-      </c>
-      <c r="M42">
-        <v>1348</v>
-      </c>
-      <c r="N42">
-        <v>1666</v>
-      </c>
-      <c r="O42">
-        <v>197</v>
-      </c>
-      <c r="P42">
-        <v>1338</v>
-      </c>
-      <c r="Q42">
-        <v>2042</v>
-      </c>
-      <c r="R42">
-        <v>519</v>
-      </c>
-      <c r="S42">
-        <v>175</v>
-      </c>
       <c r="T42">
-        <v>1085</v>
+        <v>18</v>
       </c>
       <c r="U42">
-        <v>1060</v>
+        <v>31</v>
       </c>
       <c r="V42">
-        <v>5567</v>
+        <v>76</v>
       </c>
       <c r="W42">
-        <v>0.433</v>
+        <v>0.389</v>
       </c>
       <c r="X42">
-        <v>0.342</v>
+        <v>0.2</v>
       </c>
       <c r="Y42">
-        <v>0.8090000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="Z42">
-        <v>25.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AA42">
-        <v>11.6</v>
+        <v>2.6</v>
       </c>
       <c r="AB42">
-        <v>2.8</v>
+        <v>1.2</v>
       </c>
       <c r="AC42">
-        <v>4.3</v>
+        <v>1.4</v>
       </c>
       <c r="AD42" t="s">
         <v>146</v>
@@ -4666,76 +4651,76 @@
         <v>20</v>
       </c>
       <c r="F43">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="G43">
-        <v>632</v>
+        <v>80</v>
       </c>
       <c r="H43">
-        <v>17475</v>
+        <v>2222</v>
       </c>
       <c r="I43">
-        <v>3339</v>
+        <v>303</v>
       </c>
       <c r="J43">
-        <v>6499</v>
+        <v>550</v>
       </c>
       <c r="K43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L43">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="M43">
-        <v>1647</v>
+        <v>145</v>
       </c>
       <c r="N43">
-        <v>2338</v>
+        <v>233</v>
       </c>
       <c r="O43">
-        <v>1769</v>
+        <v>248</v>
       </c>
       <c r="P43">
-        <v>5229</v>
+        <v>601</v>
       </c>
       <c r="Q43">
-        <v>1354</v>
+        <v>105</v>
       </c>
       <c r="R43">
-        <v>672</v>
+        <v>93</v>
       </c>
       <c r="S43">
-        <v>363</v>
+        <v>45</v>
       </c>
       <c r="T43">
-        <v>1186</v>
+        <v>81</v>
       </c>
       <c r="U43">
-        <v>1411</v>
+        <v>196</v>
       </c>
       <c r="V43">
-        <v>8326</v>
+        <v>751</v>
       </c>
       <c r="W43">
-        <v>0.514</v>
+        <v>0.551</v>
       </c>
       <c r="X43">
-        <v>0.059</v>
+        <v>0</v>
       </c>
       <c r="Y43">
-        <v>0.704</v>
+        <v>0.622</v>
       </c>
       <c r="Z43">
-        <v>27.7</v>
+        <v>27.8</v>
       </c>
       <c r="AA43">
-        <v>13.2</v>
+        <v>9.4</v>
       </c>
       <c r="AB43">
-        <v>8.300000000000001</v>
+        <v>7.5</v>
       </c>
       <c r="AC43">
-        <v>2.1</v>
+        <v>1.3</v>
       </c>
       <c r="AD43" t="s">
         <v>146</v>
@@ -4758,76 +4743,73 @@
         <v>24</v>
       </c>
       <c r="F44">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G44">
-        <v>454</v>
+        <v>45</v>
       </c>
       <c r="H44">
-        <v>8181</v>
+        <v>524</v>
       </c>
       <c r="I44">
-        <v>1230</v>
+        <v>63</v>
       </c>
       <c r="J44">
-        <v>2301</v>
+        <v>133</v>
       </c>
       <c r="K44">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="L44">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="M44">
-        <v>601</v>
+        <v>37</v>
       </c>
       <c r="N44">
-        <v>814</v>
+        <v>52</v>
       </c>
       <c r="O44">
-        <v>769</v>
+        <v>46</v>
       </c>
       <c r="P44">
-        <v>2225</v>
+        <v>121</v>
       </c>
       <c r="Q44">
-        <v>250</v>
+        <v>15</v>
       </c>
       <c r="R44">
-        <v>139</v>
+        <v>15</v>
       </c>
       <c r="S44">
-        <v>383</v>
+        <v>25</v>
       </c>
       <c r="T44">
-        <v>527</v>
+        <v>35</v>
       </c>
       <c r="U44">
-        <v>998</v>
+        <v>84</v>
       </c>
       <c r="V44">
-        <v>3072</v>
+        <v>163</v>
       </c>
       <c r="W44">
-        <v>0.535</v>
-      </c>
-      <c r="X44">
-        <v>0.19</v>
+        <v>0.474</v>
       </c>
       <c r="Y44">
-        <v>0.738</v>
+        <v>0.712</v>
       </c>
       <c r="Z44">
-        <v>18</v>
+        <v>11.6</v>
       </c>
       <c r="AA44">
-        <v>6.8</v>
+        <v>3.6</v>
       </c>
       <c r="AB44">
-        <v>4.9</v>
+        <v>2.7</v>
       </c>
       <c r="AC44">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="AD44" t="s">
         <v>146</v>
@@ -4850,19 +4832,19 @@
         <v>24</v>
       </c>
       <c r="F45">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G45">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="H45">
-        <v>157</v>
+        <v>80</v>
       </c>
       <c r="I45">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="J45">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="K45">
         <v>0</v>
@@ -4874,49 +4856,49 @@
         <v>6</v>
       </c>
       <c r="N45">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O45">
+        <v>2</v>
+      </c>
+      <c r="P45">
         <v>7</v>
       </c>
-      <c r="P45">
-        <v>25</v>
-      </c>
       <c r="Q45">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R45">
         <v>2</v>
       </c>
       <c r="S45">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="T45">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="U45">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="V45">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="W45">
-        <v>0.467</v>
+        <v>0.8</v>
       </c>
       <c r="Y45">
-        <v>0.462</v>
+        <v>0.5</v>
       </c>
       <c r="Z45">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="AA45">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="AB45">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="AC45">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="AD45" t="s">
         <v>146</v>
@@ -4939,76 +4921,76 @@
         <v>26</v>
       </c>
       <c r="F46">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G46">
-        <v>352</v>
+        <v>80</v>
       </c>
       <c r="H46">
-        <v>7507</v>
+        <v>1685</v>
       </c>
       <c r="I46">
-        <v>1275</v>
+        <v>285</v>
       </c>
       <c r="J46">
-        <v>3021</v>
+        <v>632</v>
       </c>
       <c r="K46">
-        <v>460</v>
+        <v>129</v>
       </c>
       <c r="L46">
-        <v>1203</v>
+        <v>308</v>
       </c>
       <c r="M46">
-        <v>460</v>
+        <v>84</v>
       </c>
       <c r="N46">
-        <v>541</v>
+        <v>104</v>
       </c>
       <c r="O46">
-        <v>81</v>
+        <v>21</v>
       </c>
       <c r="P46">
-        <v>760</v>
+        <v>196</v>
       </c>
       <c r="Q46">
-        <v>573</v>
+        <v>96</v>
       </c>
       <c r="R46">
-        <v>145</v>
+        <v>27</v>
       </c>
       <c r="S46">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="T46">
-        <v>365</v>
+        <v>78</v>
       </c>
       <c r="U46">
-        <v>525</v>
+        <v>148</v>
       </c>
       <c r="V46">
-        <v>3470</v>
+        <v>783</v>
       </c>
       <c r="W46">
-        <v>0.422</v>
+        <v>0.451</v>
       </c>
       <c r="X46">
-        <v>0.382</v>
+        <v>0.419</v>
       </c>
       <c r="Y46">
-        <v>0.85</v>
+        <v>0.8080000000000001</v>
       </c>
       <c r="Z46">
-        <v>21.3</v>
+        <v>21.1</v>
       </c>
       <c r="AA46">
-        <v>9.9</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AB46">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="AC46">
-        <v>1.6</v>
+        <v>1.2</v>
       </c>
       <c r="AD46" t="s">
         <v>146</v>
@@ -5031,76 +5013,76 @@
         <v>28</v>
       </c>
       <c r="F47">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G47">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="H47">
-        <v>218</v>
+        <v>143</v>
       </c>
       <c r="I47">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="J47">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="K47">
+        <v>6</v>
+      </c>
+      <c r="L47">
+        <v>13</v>
+      </c>
+      <c r="M47">
+        <v>4</v>
+      </c>
+      <c r="N47">
+        <v>9</v>
+      </c>
+      <c r="O47">
+        <v>1</v>
+      </c>
+      <c r="P47">
+        <v>15</v>
+      </c>
+      <c r="Q47">
         <v>8</v>
-      </c>
-      <c r="L47">
-        <v>18</v>
-      </c>
-      <c r="M47">
-        <v>7</v>
-      </c>
-      <c r="N47">
-        <v>13</v>
-      </c>
-      <c r="O47">
-        <v>3</v>
-      </c>
-      <c r="P47">
-        <v>28</v>
-      </c>
-      <c r="Q47">
-        <v>12</v>
       </c>
       <c r="R47">
         <v>9</v>
       </c>
       <c r="S47">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="T47">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="U47">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="V47">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="W47">
-        <v>0.442</v>
+        <v>0.469</v>
       </c>
       <c r="X47">
+        <v>0.462</v>
+      </c>
+      <c r="Y47">
         <v>0.444</v>
       </c>
-      <c r="Y47">
-        <v>0.538</v>
-      </c>
       <c r="Z47">
-        <v>11.5</v>
+        <v>11.9</v>
       </c>
       <c r="AA47">
-        <v>2.8</v>
+        <v>3.3</v>
       </c>
       <c r="AB47">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="AC47">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="AD47" t="s">
         <v>146</v>
@@ -5123,76 +5105,76 @@
         <v>21</v>
       </c>
       <c r="F48">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G48">
-        <v>674</v>
+        <v>52</v>
       </c>
       <c r="H48">
-        <v>14194</v>
+        <v>868</v>
       </c>
       <c r="I48">
-        <v>1782</v>
+        <v>149</v>
       </c>
       <c r="J48">
-        <v>3977</v>
+        <v>267</v>
       </c>
       <c r="K48">
-        <v>579</v>
+        <v>0</v>
       </c>
       <c r="L48">
-        <v>1568</v>
+        <v>2</v>
       </c>
       <c r="M48">
-        <v>389</v>
+        <v>30</v>
       </c>
       <c r="N48">
-        <v>517</v>
+        <v>42</v>
       </c>
       <c r="O48">
-        <v>798</v>
+        <v>86</v>
       </c>
       <c r="P48">
-        <v>2698</v>
+        <v>200</v>
       </c>
       <c r="Q48">
-        <v>699</v>
+        <v>41</v>
       </c>
       <c r="R48">
-        <v>353</v>
+        <v>17</v>
       </c>
       <c r="S48">
-        <v>288</v>
+        <v>37</v>
       </c>
       <c r="T48">
-        <v>436</v>
+        <v>31</v>
       </c>
       <c r="U48">
-        <v>1059</v>
+        <v>77</v>
       </c>
       <c r="V48">
-        <v>4532</v>
+        <v>328</v>
       </c>
       <c r="W48">
-        <v>0.448</v>
+        <v>0.5580000000000001</v>
       </c>
       <c r="X48">
-        <v>0.369</v>
+        <v>0</v>
       </c>
       <c r="Y48">
-        <v>0.752</v>
+        <v>0.714</v>
       </c>
       <c r="Z48">
-        <v>21.1</v>
+        <v>16.7</v>
       </c>
       <c r="AA48">
-        <v>6.7</v>
+        <v>6.3</v>
       </c>
       <c r="AB48">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="AC48">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AD48" t="s">
         <v>146</v>
@@ -5215,19 +5197,19 @@
         <v>25</v>
       </c>
       <c r="F49">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G49">
-        <v>271</v>
+        <v>65</v>
       </c>
       <c r="H49">
-        <v>6744</v>
+        <v>887</v>
       </c>
       <c r="I49">
-        <v>1314</v>
+        <v>136</v>
       </c>
       <c r="J49">
-        <v>2537</v>
+        <v>263</v>
       </c>
       <c r="K49">
         <v>0</v>
@@ -5236,52 +5218,52 @@
         <v>0</v>
       </c>
       <c r="M49">
-        <v>777</v>
+        <v>87</v>
       </c>
       <c r="N49">
-        <v>1023</v>
+        <v>114</v>
       </c>
       <c r="O49">
-        <v>803</v>
+        <v>90</v>
       </c>
       <c r="P49">
-        <v>1807</v>
+        <v>193</v>
       </c>
       <c r="Q49">
-        <v>199</v>
+        <v>27</v>
       </c>
       <c r="R49">
-        <v>140</v>
+        <v>18</v>
       </c>
       <c r="S49">
-        <v>151</v>
+        <v>35</v>
       </c>
       <c r="T49">
-        <v>414</v>
+        <v>91</v>
       </c>
       <c r="U49">
-        <v>632</v>
+        <v>181</v>
       </c>
       <c r="V49">
-        <v>3405</v>
+        <v>359</v>
       </c>
       <c r="W49">
-        <v>0.518</v>
+        <v>0.517</v>
       </c>
       <c r="Y49">
-        <v>0.76</v>
+        <v>0.763</v>
       </c>
       <c r="Z49">
-        <v>24.9</v>
+        <v>13.6</v>
       </c>
       <c r="AA49">
-        <v>12.6</v>
+        <v>5.5</v>
       </c>
       <c r="AB49">
-        <v>6.7</v>
+        <v>3</v>
       </c>
       <c r="AC49">
-        <v>0.7</v>
+        <v>0.4</v>
       </c>
       <c r="AD49" t="s">
         <v>146</v>
@@ -5304,19 +5286,19 @@
         <v>22</v>
       </c>
       <c r="F50">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G50">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="H50">
-        <v>347</v>
+        <v>11</v>
       </c>
       <c r="I50">
-        <v>49</v>
+        <v>1</v>
       </c>
       <c r="J50">
-        <v>109</v>
+        <v>3</v>
       </c>
       <c r="K50">
         <v>0</v>
@@ -5325,52 +5307,49 @@
         <v>0</v>
       </c>
       <c r="M50">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="N50">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="O50">
-        <v>38</v>
+        <v>1</v>
       </c>
       <c r="P50">
-        <v>89</v>
+        <v>3</v>
       </c>
       <c r="Q50">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="R50">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="S50">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="T50">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="U50">
-        <v>83</v>
+        <v>2</v>
       </c>
       <c r="V50">
-        <v>116</v>
+        <v>2</v>
       </c>
       <c r="W50">
-        <v>0.45</v>
-      </c>
-      <c r="Y50">
-        <v>0.545</v>
+        <v>0.333</v>
       </c>
       <c r="Z50">
-        <v>6.9</v>
+        <v>5.5</v>
       </c>
       <c r="AA50">
-        <v>2.3</v>
+        <v>1</v>
       </c>
       <c r="AB50">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AC50">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="AD50" t="s">
         <v>146</v>
@@ -5393,76 +5372,76 @@
         <v>22</v>
       </c>
       <c r="F51">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G51">
-        <v>355</v>
+        <v>66</v>
       </c>
       <c r="H51">
-        <v>5530</v>
+        <v>734</v>
       </c>
       <c r="I51">
-        <v>571</v>
+        <v>73</v>
       </c>
       <c r="J51">
-        <v>1351</v>
+        <v>180</v>
       </c>
       <c r="K51">
-        <v>211</v>
+        <v>18</v>
       </c>
       <c r="L51">
-        <v>593</v>
+        <v>50</v>
       </c>
       <c r="M51">
-        <v>256</v>
+        <v>24</v>
       </c>
       <c r="N51">
-        <v>343</v>
+        <v>34</v>
       </c>
       <c r="O51">
-        <v>200</v>
+        <v>23</v>
       </c>
       <c r="P51">
-        <v>640</v>
+        <v>88</v>
       </c>
       <c r="Q51">
-        <v>263</v>
+        <v>28</v>
       </c>
       <c r="R51">
-        <v>122</v>
+        <v>17</v>
       </c>
       <c r="S51">
-        <v>49</v>
+        <v>10</v>
       </c>
       <c r="T51">
-        <v>178</v>
+        <v>16</v>
       </c>
       <c r="U51">
-        <v>464</v>
+        <v>63</v>
       </c>
       <c r="V51">
-        <v>1609</v>
+        <v>188</v>
       </c>
       <c r="W51">
-        <v>0.423</v>
+        <v>0.406</v>
       </c>
       <c r="X51">
-        <v>0.356</v>
+        <v>0.36</v>
       </c>
       <c r="Y51">
-        <v>0.746</v>
+        <v>0.706</v>
       </c>
       <c r="Z51">
-        <v>15.6</v>
+        <v>11.1</v>
       </c>
       <c r="AA51">
-        <v>4.5</v>
+        <v>2.8</v>
       </c>
       <c r="AB51">
-        <v>1.8</v>
+        <v>1.3</v>
       </c>
       <c r="AC51">
-        <v>0.7</v>
+        <v>0.4</v>
       </c>
       <c r="AD51" t="s">
         <v>146</v>
@@ -5577,76 +5556,76 @@
         <v>22</v>
       </c>
       <c r="F53">
+        <v>1</v>
+      </c>
+      <c r="G53">
+        <v>37</v>
+      </c>
+      <c r="H53">
+        <v>701</v>
+      </c>
+      <c r="I53">
+        <v>110</v>
+      </c>
+      <c r="J53">
+        <v>241</v>
+      </c>
+      <c r="K53">
+        <v>0</v>
+      </c>
+      <c r="L53">
         <v>3</v>
       </c>
-      <c r="G53">
-        <v>109</v>
-      </c>
-      <c r="H53">
-        <v>1722</v>
-      </c>
-      <c r="I53">
-        <v>237</v>
-      </c>
-      <c r="J53">
-        <v>532</v>
-      </c>
-      <c r="K53">
-        <v>0</v>
-      </c>
-      <c r="L53">
-        <v>4</v>
-      </c>
       <c r="M53">
-        <v>164</v>
+        <v>68</v>
       </c>
       <c r="N53">
-        <v>251</v>
+        <v>110</v>
       </c>
       <c r="O53">
-        <v>148</v>
+        <v>75</v>
       </c>
       <c r="P53">
-        <v>366</v>
+        <v>158</v>
       </c>
       <c r="Q53">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="R53">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="S53">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="T53">
-        <v>115</v>
+        <v>53</v>
       </c>
       <c r="U53">
-        <v>231</v>
+        <v>88</v>
       </c>
       <c r="V53">
-        <v>638</v>
+        <v>288</v>
       </c>
       <c r="W53">
-        <v>0.445</v>
+        <v>0.456</v>
       </c>
       <c r="X53">
         <v>0</v>
       </c>
       <c r="Y53">
-        <v>0.653</v>
+        <v>0.618</v>
       </c>
       <c r="Z53">
-        <v>15.8</v>
+        <v>18.9</v>
       </c>
       <c r="AA53">
-        <v>5.9</v>
+        <v>7.8</v>
       </c>
       <c r="AB53">
-        <v>3.4</v>
+        <v>4.3</v>
       </c>
       <c r="AC53">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="AD53" t="s">
         <v>146</v>
@@ -5669,76 +5648,73 @@
         <v>22</v>
       </c>
       <c r="F54">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G54">
-        <v>238</v>
+        <v>60</v>
       </c>
       <c r="H54">
-        <v>4635</v>
+        <v>872</v>
       </c>
       <c r="I54">
-        <v>669</v>
+        <v>116</v>
       </c>
       <c r="J54">
-        <v>1395</v>
+        <v>268</v>
       </c>
       <c r="K54">
         <v>0</v>
       </c>
       <c r="L54">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="M54">
-        <v>182</v>
+        <v>28</v>
       </c>
       <c r="N54">
-        <v>329</v>
+        <v>50</v>
       </c>
       <c r="O54">
-        <v>475</v>
+        <v>59</v>
       </c>
       <c r="P54">
-        <v>1345</v>
+        <v>178</v>
       </c>
       <c r="Q54">
-        <v>174</v>
+        <v>16</v>
       </c>
       <c r="R54">
-        <v>152</v>
+        <v>22</v>
       </c>
       <c r="S54">
-        <v>429</v>
+        <v>72</v>
       </c>
       <c r="T54">
-        <v>224</v>
+        <v>38</v>
       </c>
       <c r="U54">
-        <v>666</v>
+        <v>117</v>
       </c>
       <c r="V54">
-        <v>1520</v>
+        <v>260</v>
       </c>
       <c r="W54">
-        <v>0.48</v>
-      </c>
-      <c r="X54">
-        <v>0</v>
+        <v>0.433</v>
       </c>
       <c r="Y54">
-        <v>0.553</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="Z54">
-        <v>19.5</v>
+        <v>14.5</v>
       </c>
       <c r="AA54">
-        <v>6.4</v>
+        <v>4.3</v>
       </c>
       <c r="AB54">
-        <v>5.7</v>
+        <v>3</v>
       </c>
       <c r="AC54">
-        <v>0.7</v>
+        <v>0.3</v>
       </c>
       <c r="AD54" t="s">
         <v>146</v>
@@ -5761,76 +5737,73 @@
         <v>21</v>
       </c>
       <c r="F55">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G55">
-        <v>423</v>
+        <v>58</v>
       </c>
       <c r="H55">
-        <v>6430</v>
+        <v>635</v>
       </c>
       <c r="I55">
-        <v>1134</v>
+        <v>66</v>
       </c>
       <c r="J55">
-        <v>2318</v>
+        <v>147</v>
       </c>
       <c r="K55">
         <v>0</v>
       </c>
       <c r="L55">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="M55">
-        <v>248</v>
+        <v>22</v>
       </c>
       <c r="N55">
-        <v>347</v>
+        <v>31</v>
       </c>
       <c r="O55">
-        <v>502</v>
+        <v>80</v>
       </c>
       <c r="P55">
-        <v>1462</v>
+        <v>152</v>
       </c>
       <c r="Q55">
-        <v>246</v>
+        <v>10</v>
       </c>
       <c r="R55">
-        <v>88</v>
+        <v>17</v>
       </c>
       <c r="S55">
-        <v>304</v>
+        <v>28</v>
       </c>
       <c r="T55">
-        <v>449</v>
+        <v>42</v>
       </c>
       <c r="U55">
-        <v>903</v>
+        <v>126</v>
       </c>
       <c r="V55">
-        <v>2516</v>
+        <v>154</v>
       </c>
       <c r="W55">
-        <v>0.489</v>
-      </c>
-      <c r="X55">
-        <v>0</v>
+        <v>0.449</v>
       </c>
       <c r="Y55">
-        <v>0.715</v>
+        <v>0.71</v>
       </c>
       <c r="Z55">
-        <v>15.2</v>
+        <v>10.9</v>
       </c>
       <c r="AA55">
-        <v>5.9</v>
+        <v>2.7</v>
       </c>
       <c r="AB55">
-        <v>3.5</v>
+        <v>2.6</v>
       </c>
       <c r="AC55">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
       <c r="AD55" t="s">
         <v>146</v>
@@ -5853,31 +5826,31 @@
         <v>26</v>
       </c>
       <c r="F56">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G56">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="H56">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="I56">
         <v>21</v>
       </c>
       <c r="J56">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="K56">
         <v>1</v>
       </c>
       <c r="L56">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M56">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N56">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O56">
         <v>7</v>
@@ -5886,7 +5859,7 @@
         <v>22</v>
       </c>
       <c r="Q56">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="R56">
         <v>5</v>
@@ -5895,34 +5868,34 @@
         <v>3</v>
       </c>
       <c r="T56">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="U56">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="V56">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="W56">
-        <v>0.339</v>
+        <v>0.356</v>
       </c>
       <c r="X56">
-        <v>0.091</v>
+        <v>0.1</v>
       </c>
       <c r="Y56">
-        <v>0.529</v>
+        <v>0.533</v>
       </c>
       <c r="Z56">
-        <v>6.8</v>
+        <v>7.2</v>
       </c>
       <c r="AA56">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="AB56">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="AC56">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="AD56" t="s">
         <v>146</v>
@@ -6034,76 +6007,76 @@
         <v>22</v>
       </c>
       <c r="F58">
+        <v>1</v>
+      </c>
+      <c r="G58">
+        <v>43</v>
+      </c>
+      <c r="H58">
+        <v>442</v>
+      </c>
+      <c r="I58">
+        <v>43</v>
+      </c>
+      <c r="J58">
+        <v>115</v>
+      </c>
+      <c r="K58">
+        <v>3</v>
+      </c>
+      <c r="L58">
         <v>10</v>
       </c>
-      <c r="G58">
-        <v>603</v>
-      </c>
-      <c r="H58">
-        <v>12114</v>
-      </c>
-      <c r="I58">
-        <v>1982</v>
-      </c>
-      <c r="J58">
-        <v>4608</v>
-      </c>
-      <c r="K58">
-        <v>252</v>
-      </c>
-      <c r="L58">
-        <v>792</v>
-      </c>
       <c r="M58">
-        <v>448</v>
+        <v>12</v>
       </c>
       <c r="N58">
-        <v>660</v>
+        <v>21</v>
       </c>
       <c r="O58">
-        <v>214</v>
+        <v>7</v>
       </c>
       <c r="P58">
-        <v>1474</v>
+        <v>47</v>
       </c>
       <c r="Q58">
-        <v>2341</v>
+        <v>79</v>
       </c>
       <c r="R58">
-        <v>432</v>
+        <v>18</v>
       </c>
       <c r="S58">
-        <v>144</v>
+        <v>2</v>
       </c>
       <c r="T58">
-        <v>763</v>
+        <v>34</v>
       </c>
       <c r="U58">
-        <v>789</v>
+        <v>37</v>
       </c>
       <c r="V58">
-        <v>4664</v>
+        <v>101</v>
       </c>
       <c r="W58">
-        <v>0.43</v>
+        <v>0.374</v>
       </c>
       <c r="X58">
-        <v>0.318</v>
+        <v>0.3</v>
       </c>
       <c r="Y58">
-        <v>0.679</v>
+        <v>0.571</v>
       </c>
       <c r="Z58">
-        <v>20.1</v>
+        <v>10.3</v>
       </c>
       <c r="AA58">
-        <v>7.7</v>
+        <v>2.3</v>
       </c>
       <c r="AB58">
-        <v>2.4</v>
+        <v>1.1</v>
       </c>
       <c r="AC58">
-        <v>3.9</v>
+        <v>1.8</v>
       </c>
       <c r="AD58" t="s">
         <v>146</v>
@@ -6126,76 +6099,76 @@
         <v>26</v>
       </c>
       <c r="F59">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G59">
-        <v>355</v>
+        <v>60</v>
       </c>
       <c r="H59">
-        <v>6812</v>
+        <v>738</v>
       </c>
       <c r="I59">
-        <v>1073</v>
+        <v>101</v>
       </c>
       <c r="J59">
-        <v>1932</v>
+        <v>191</v>
       </c>
       <c r="K59">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L59">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="M59">
-        <v>668</v>
+        <v>76</v>
       </c>
       <c r="N59">
-        <v>958</v>
+        <v>140</v>
       </c>
       <c r="O59">
-        <v>576</v>
+        <v>72</v>
       </c>
       <c r="P59">
-        <v>1779</v>
+        <v>201</v>
       </c>
       <c r="Q59">
-        <v>423</v>
+        <v>26</v>
       </c>
       <c r="R59">
-        <v>198</v>
+        <v>29</v>
       </c>
       <c r="S59">
-        <v>209</v>
+        <v>17</v>
       </c>
       <c r="T59">
-        <v>384</v>
+        <v>32</v>
       </c>
       <c r="U59">
-        <v>685</v>
+        <v>91</v>
       </c>
       <c r="V59">
-        <v>2816</v>
+        <v>278</v>
       </c>
       <c r="W59">
-        <v>0.555</v>
+        <v>0.529</v>
       </c>
       <c r="X59">
-        <v>0.143</v>
+        <v>0</v>
       </c>
       <c r="Y59">
-        <v>0.697</v>
+        <v>0.543</v>
       </c>
       <c r="Z59">
-        <v>19.2</v>
+        <v>12.3</v>
       </c>
       <c r="AA59">
-        <v>7.9</v>
+        <v>4.6</v>
       </c>
       <c r="AB59">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="AC59">
-        <v>1.2</v>
+        <v>0.4</v>
       </c>
       <c r="AD59" t="s">
         <v>146</v>
@@ -6218,76 +6191,76 @@
         <v>20</v>
       </c>
       <c r="F60">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="G60">
-        <v>508</v>
+        <v>12</v>
       </c>
       <c r="H60">
-        <v>11866</v>
+        <v>115</v>
       </c>
       <c r="I60">
-        <v>1738</v>
+        <v>13</v>
       </c>
       <c r="J60">
-        <v>3917</v>
+        <v>39</v>
       </c>
       <c r="K60">
-        <v>346</v>
+        <v>0</v>
       </c>
       <c r="L60">
-        <v>1099</v>
+        <v>5</v>
       </c>
       <c r="M60">
-        <v>532</v>
+        <v>11</v>
       </c>
       <c r="N60">
-        <v>777</v>
+        <v>14</v>
       </c>
       <c r="O60">
-        <v>332</v>
+        <v>1</v>
       </c>
       <c r="P60">
-        <v>2124</v>
+        <v>18</v>
       </c>
       <c r="Q60">
-        <v>1456</v>
+        <v>21</v>
       </c>
       <c r="R60">
-        <v>333</v>
+        <v>4</v>
       </c>
       <c r="S60">
-        <v>72</v>
+        <v>0</v>
       </c>
       <c r="T60">
-        <v>836</v>
+        <v>16</v>
       </c>
       <c r="U60">
-        <v>990</v>
+        <v>14</v>
       </c>
       <c r="V60">
-        <v>4354</v>
+        <v>37</v>
       </c>
       <c r="W60">
-        <v>0.444</v>
+        <v>0.333</v>
       </c>
       <c r="X60">
-        <v>0.315</v>
+        <v>0</v>
       </c>
       <c r="Y60">
-        <v>0.6850000000000001</v>
+        <v>0.786</v>
       </c>
       <c r="Z60">
-        <v>23.4</v>
+        <v>9.6</v>
       </c>
       <c r="AA60">
-        <v>8.6</v>
+        <v>3.1</v>
       </c>
       <c r="AB60">
-        <v>4.2</v>
+        <v>1.5</v>
       </c>
       <c r="AC60">
-        <v>2.9</v>
+        <v>1.8</v>
       </c>
       <c r="AD60" t="s">
         <v>146</v>
@@ -6402,76 +6375,76 @@
         <v>22</v>
       </c>
       <c r="F62">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G62">
-        <v>705</v>
+        <v>78</v>
       </c>
       <c r="H62">
-        <v>18938</v>
+        <v>1797</v>
       </c>
       <c r="I62">
-        <v>2748</v>
+        <v>225</v>
       </c>
       <c r="J62">
-        <v>6331</v>
+        <v>529</v>
       </c>
       <c r="K62">
-        <v>270</v>
+        <v>14</v>
       </c>
       <c r="L62">
-        <v>917</v>
+        <v>44</v>
       </c>
       <c r="M62">
-        <v>1058</v>
+        <v>101</v>
       </c>
       <c r="N62">
-        <v>1353</v>
+        <v>125</v>
       </c>
       <c r="O62">
-        <v>388</v>
+        <v>42</v>
       </c>
       <c r="P62">
-        <v>3278</v>
+        <v>306</v>
       </c>
       <c r="Q62">
-        <v>2462</v>
+        <v>159</v>
       </c>
       <c r="R62">
-        <v>532</v>
+        <v>49</v>
       </c>
       <c r="S62">
-        <v>184</v>
+        <v>14</v>
       </c>
       <c r="T62">
-        <v>1267</v>
+        <v>80</v>
       </c>
       <c r="U62">
-        <v>1380</v>
+        <v>138</v>
       </c>
       <c r="V62">
-        <v>6824</v>
+        <v>565</v>
       </c>
       <c r="W62">
-        <v>0.434</v>
+        <v>0.425</v>
       </c>
       <c r="X62">
-        <v>0.294</v>
+        <v>0.318</v>
       </c>
       <c r="Y62">
-        <v>0.782</v>
+        <v>0.8080000000000001</v>
       </c>
       <c r="Z62">
-        <v>26.9</v>
+        <v>23</v>
       </c>
       <c r="AA62">
-        <v>9.699999999999999</v>
+        <v>7.2</v>
       </c>
       <c r="AB62">
-        <v>4.6</v>
+        <v>3.9</v>
       </c>
       <c r="AC62">
-        <v>3.5</v>
+        <v>2</v>
       </c>
       <c r="AD62" t="s">
         <v>146</v>
@@ -6494,73 +6467,70 @@
         <v>23</v>
       </c>
       <c r="F63">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G63">
-        <v>384</v>
+        <v>58</v>
       </c>
       <c r="H63">
-        <v>5694</v>
+        <v>1030</v>
       </c>
       <c r="I63">
-        <v>519</v>
+        <v>97</v>
       </c>
       <c r="J63">
-        <v>1145</v>
+        <v>222</v>
       </c>
       <c r="K63">
         <v>0</v>
       </c>
       <c r="L63">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M63">
-        <v>315</v>
+        <v>42</v>
       </c>
       <c r="N63">
-        <v>439</v>
+        <v>64</v>
       </c>
       <c r="O63">
-        <v>456</v>
+        <v>80</v>
       </c>
       <c r="P63">
-        <v>1100</v>
+        <v>181</v>
       </c>
       <c r="Q63">
-        <v>260</v>
+        <v>40</v>
       </c>
       <c r="R63">
-        <v>177</v>
+        <v>22</v>
       </c>
       <c r="S63">
-        <v>429</v>
+        <v>86</v>
       </c>
       <c r="T63">
-        <v>222</v>
+        <v>48</v>
       </c>
       <c r="U63">
-        <v>714</v>
+        <v>144</v>
       </c>
       <c r="V63">
-        <v>1353</v>
+        <v>236</v>
       </c>
       <c r="W63">
-        <v>0.453</v>
-      </c>
-      <c r="X63">
-        <v>0</v>
+        <v>0.437</v>
       </c>
       <c r="Y63">
-        <v>0.718</v>
+        <v>0.656</v>
       </c>
       <c r="Z63">
-        <v>14.8</v>
+        <v>17.8</v>
       </c>
       <c r="AA63">
-        <v>3.5</v>
+        <v>4.1</v>
       </c>
       <c r="AB63">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="AC63">
         <v>0.7</v>
@@ -6586,76 +6556,76 @@
         <v>22</v>
       </c>
       <c r="F64">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G64">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="H64">
-        <v>808</v>
+        <v>438</v>
       </c>
       <c r="I64">
-        <v>96</v>
+        <v>61</v>
       </c>
       <c r="J64">
-        <v>243</v>
+        <v>144</v>
       </c>
       <c r="K64">
         <v>3</v>
       </c>
       <c r="L64">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="M64">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="N64">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="O64">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="P64">
-        <v>128</v>
+        <v>61</v>
       </c>
       <c r="Q64">
-        <v>130</v>
+        <v>69</v>
       </c>
       <c r="R64">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="S64">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="T64">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="U64">
-        <v>60</v>
+        <v>29</v>
       </c>
       <c r="V64">
-        <v>239</v>
+        <v>158</v>
       </c>
       <c r="W64">
-        <v>0.395</v>
+        <v>0.424</v>
       </c>
       <c r="X64">
-        <v>0.333</v>
+        <v>0.375</v>
       </c>
       <c r="Y64">
-        <v>0.587</v>
+        <v>0.589</v>
       </c>
       <c r="Z64">
-        <v>13.5</v>
+        <v>10.4</v>
       </c>
       <c r="AA64">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="AB64">
-        <v>2.1</v>
+        <v>1.5</v>
       </c>
       <c r="AC64">
-        <v>2.2</v>
+        <v>1.6</v>
       </c>
       <c r="AD64" t="s">
         <v>146</v>
@@ -6678,76 +6648,76 @@
         <v>24</v>
       </c>
       <c r="F65">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G65">
-        <v>401</v>
+        <v>70</v>
       </c>
       <c r="H65">
-        <v>9520</v>
+        <v>860</v>
       </c>
       <c r="I65">
-        <v>1378</v>
+        <v>95</v>
       </c>
       <c r="J65">
-        <v>3297</v>
+        <v>233</v>
       </c>
       <c r="K65">
-        <v>412</v>
+        <v>25</v>
       </c>
       <c r="L65">
-        <v>1180</v>
+        <v>86</v>
       </c>
       <c r="M65">
-        <v>423</v>
+        <v>34</v>
       </c>
       <c r="N65">
-        <v>518</v>
+        <v>44</v>
       </c>
       <c r="O65">
-        <v>125</v>
+        <v>12</v>
       </c>
       <c r="P65">
-        <v>1021</v>
+        <v>73</v>
       </c>
       <c r="Q65">
-        <v>1935</v>
+        <v>151</v>
       </c>
       <c r="R65">
-        <v>236</v>
+        <v>22</v>
       </c>
       <c r="S65">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="T65">
-        <v>753</v>
+        <v>70</v>
       </c>
       <c r="U65">
-        <v>767</v>
+        <v>83</v>
       </c>
       <c r="V65">
-        <v>3591</v>
+        <v>249</v>
       </c>
       <c r="W65">
-        <v>0.418</v>
+        <v>0.408</v>
       </c>
       <c r="X65">
-        <v>0.349</v>
+        <v>0.291</v>
       </c>
       <c r="Y65">
-        <v>0.8169999999999999</v>
+        <v>0.773</v>
       </c>
       <c r="Z65">
-        <v>23.7</v>
+        <v>12.3</v>
       </c>
       <c r="AA65">
-        <v>9</v>
+        <v>3.6</v>
       </c>
       <c r="AB65">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="AC65">
-        <v>4.8</v>
+        <v>2.2</v>
       </c>
       <c r="AD65" t="s">
         <v>146</v>
@@ -6770,76 +6740,76 @@
         <v>20</v>
       </c>
       <c r="F66">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="G66">
-        <v>573</v>
+        <v>69</v>
       </c>
       <c r="H66">
-        <v>20545</v>
+        <v>2606</v>
       </c>
       <c r="I66">
-        <v>3942</v>
+        <v>398</v>
       </c>
       <c r="J66">
-        <v>9107</v>
+        <v>972</v>
       </c>
       <c r="K66">
-        <v>539</v>
+        <v>34</v>
       </c>
       <c r="L66">
-        <v>1663</v>
+        <v>115</v>
       </c>
       <c r="M66">
-        <v>2456</v>
+        <v>301</v>
       </c>
       <c r="N66">
-        <v>3144</v>
+        <v>393</v>
       </c>
       <c r="O66">
-        <v>330</v>
+        <v>35</v>
       </c>
       <c r="P66">
-        <v>2483</v>
+        <v>317</v>
       </c>
       <c r="Q66">
-        <v>5282</v>
+        <v>574</v>
       </c>
       <c r="R66">
-        <v>976</v>
+        <v>121</v>
       </c>
       <c r="S66">
-        <v>396</v>
+        <v>35</v>
       </c>
       <c r="T66">
-        <v>2191</v>
+        <v>261</v>
       </c>
       <c r="U66">
-        <v>1289</v>
+        <v>175</v>
       </c>
       <c r="V66">
-        <v>10879</v>
+        <v>1131</v>
       </c>
       <c r="W66">
-        <v>0.433</v>
+        <v>0.409</v>
       </c>
       <c r="X66">
-        <v>0.324</v>
+        <v>0.296</v>
       </c>
       <c r="Y66">
-        <v>0.781</v>
+        <v>0.766</v>
       </c>
       <c r="Z66">
-        <v>35.9</v>
+        <v>37.8</v>
       </c>
       <c r="AA66">
-        <v>19</v>
+        <v>16.4</v>
       </c>
       <c r="AB66">
-        <v>4.3</v>
+        <v>4.6</v>
       </c>
       <c r="AC66">
-        <v>9.199999999999999</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="AD66" t="s">
         <v>146</v>
@@ -6954,76 +6924,67 @@
         <v>21</v>
       </c>
       <c r="F68">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G68">
-        <v>405</v>
+        <v>1</v>
       </c>
       <c r="H68">
-        <v>10857</v>
+        <v>2</v>
       </c>
       <c r="I68">
-        <v>2331</v>
+        <v>0</v>
       </c>
       <c r="J68">
-        <v>4008</v>
+        <v>0</v>
       </c>
       <c r="K68">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="L68">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="M68">
-        <v>913</v>
+        <v>0</v>
       </c>
       <c r="N68">
-        <v>1506</v>
+        <v>0</v>
       </c>
       <c r="O68">
-        <v>1369</v>
+        <v>0</v>
       </c>
       <c r="P68">
-        <v>4782</v>
+        <v>0</v>
       </c>
       <c r="Q68">
-        <v>277</v>
+        <v>0</v>
       </c>
       <c r="R68">
-        <v>238</v>
+        <v>0</v>
       </c>
       <c r="S68">
-        <v>987</v>
+        <v>0</v>
       </c>
       <c r="T68">
-        <v>660</v>
+        <v>0</v>
       </c>
       <c r="U68">
-        <v>1076</v>
+        <v>2</v>
       </c>
       <c r="V68">
-        <v>5583</v>
-      </c>
-      <c r="W68">
-        <v>0.582</v>
-      </c>
-      <c r="X68">
-        <v>0.32</v>
-      </c>
-      <c r="Y68">
-        <v>0.606</v>
+        <v>0</v>
       </c>
       <c r="Z68">
-        <v>26.8</v>
+        <v>2</v>
       </c>
       <c r="AA68">
-        <v>13.8</v>
+        <v>0</v>
       </c>
       <c r="AB68">
-        <v>11.8</v>
+        <v>0</v>
       </c>
       <c r="AC68">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="AD68" t="s">
         <v>146</v>
